--- a/output/Congo, The Democratic Republic of the_formatted.xlsx
+++ b/output/Congo, The Democratic Republic of the_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">Additional source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potential_duplication</t>
   </si>
   <si>
     <t xml:space="preserve">COD</t>
@@ -1538,22 +1541,25 @@
       <c r="AK1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -1563,10 +1569,10 @@
         <v>43332</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" t="n">
         <v>0.33</v>
@@ -1641,22 +1647,25 @@
       <c r="AI2"/>
       <c r="AJ2"/>
       <c r="AK2"/>
+      <c r="AL2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -1666,10 +1675,10 @@
         <v>43370</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -1740,22 +1749,25 @@
       <c r="AI3"/>
       <c r="AJ3"/>
       <c r="AK3"/>
+      <c r="AL3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
@@ -1765,10 +1777,10 @@
         <v>43341</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
         <v>0.1</v>
@@ -1843,22 +1855,25 @@
       <c r="AI4"/>
       <c r="AJ4"/>
       <c r="AK4"/>
+      <c r="AL4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -1868,10 +1883,10 @@
         <v>43353</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="n">
         <v>0.1</v>
@@ -1946,22 +1961,25 @@
       <c r="AI5"/>
       <c r="AJ5"/>
       <c r="AK5"/>
+      <c r="AL5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
@@ -1971,10 +1989,10 @@
         <v>43474</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
@@ -2045,22 +2063,25 @@
       <c r="AI6"/>
       <c r="AJ6"/>
       <c r="AK6"/>
+      <c r="AL6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
@@ -2070,10 +2091,10 @@
         <v>43370</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -2144,22 +2165,25 @@
       <c r="AI7"/>
       <c r="AJ7"/>
       <c r="AK7"/>
+      <c r="AL7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
@@ -2169,10 +2193,10 @@
         <v>43361</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="n">
         <v>0.15</v>
@@ -2247,22 +2271,25 @@
       <c r="AI8"/>
       <c r="AJ8"/>
       <c r="AK8"/>
+      <c r="AL8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
@@ -2272,10 +2299,10 @@
         <v>43361</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" t="n">
         <v>0.14</v>
@@ -2350,22 +2377,25 @@
       <c r="AI9"/>
       <c r="AJ9"/>
       <c r="AK9"/>
+      <c r="AL9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
@@ -2375,10 +2405,10 @@
         <v>43896</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -2453,22 +2483,25 @@
       <c r="AI10"/>
       <c r="AJ10"/>
       <c r="AK10"/>
+      <c r="AL10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
@@ -2478,10 +2511,10 @@
         <v>43896</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" t="n">
         <v>0.25</v>
@@ -2556,22 +2589,25 @@
       <c r="AI11"/>
       <c r="AJ11"/>
       <c r="AK11"/>
+      <c r="AL11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
@@ -2581,10 +2617,10 @@
         <v>43896</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K12" t="n">
         <v>0.25</v>
@@ -2659,22 +2695,25 @@
       <c r="AI12"/>
       <c r="AJ12"/>
       <c r="AK12"/>
+      <c r="AL12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
@@ -2684,10 +2723,10 @@
         <v>43896</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" t="n">
         <v>0.25</v>
@@ -2762,22 +2801,25 @@
       <c r="AI13"/>
       <c r="AJ13"/>
       <c r="AK13"/>
+      <c r="AL13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
@@ -2787,10 +2829,10 @@
         <v>43371</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
@@ -2861,22 +2903,25 @@
       <c r="AI14"/>
       <c r="AJ14"/>
       <c r="AK14"/>
+      <c r="AL14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
@@ -2886,10 +2931,10 @@
         <v>43409</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
@@ -2960,22 +3005,25 @@
       <c r="AI15"/>
       <c r="AJ15"/>
       <c r="AK15"/>
+      <c r="AL15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
@@ -2985,10 +3033,10 @@
         <v>43409</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
@@ -3059,22 +3107,25 @@
       <c r="AI16"/>
       <c r="AJ16"/>
       <c r="AK16"/>
+      <c r="AL16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1" t="n">
@@ -3084,10 +3135,10 @@
         <v>43381</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" t="n">
         <v>0.047766</v>
@@ -3162,22 +3213,25 @@
       <c r="AI17"/>
       <c r="AJ17"/>
       <c r="AK17"/>
+      <c r="AL17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="1" t="n">
@@ -3187,10 +3241,10 @@
         <v>43409</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
@@ -3261,22 +3315,25 @@
       <c r="AI18"/>
       <c r="AJ18"/>
       <c r="AK18"/>
+      <c r="AL18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="1" t="n">
@@ -3286,10 +3343,10 @@
         <v>43515</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -3360,22 +3417,25 @@
       <c r="AI19"/>
       <c r="AJ19"/>
       <c r="AK19"/>
+      <c r="AL19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="1" t="n">
@@ -3385,10 +3445,10 @@
         <v>43721</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -3459,22 +3519,25 @@
       <c r="AI20"/>
       <c r="AJ20"/>
       <c r="AK20"/>
+      <c r="AL20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1" t="n">
@@ -3484,10 +3547,10 @@
         <v>43409</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -3558,22 +3621,25 @@
       <c r="AI21"/>
       <c r="AJ21"/>
       <c r="AK21"/>
+      <c r="AL21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="n">
@@ -3583,10 +3649,10 @@
         <v>43630</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -3661,22 +3727,25 @@
       <c r="AI22"/>
       <c r="AJ22"/>
       <c r="AK22"/>
+      <c r="AL22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1" t="n">
@@ -3686,10 +3755,10 @@
         <v>43497</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -3764,22 +3833,25 @@
       <c r="AI23"/>
       <c r="AJ23"/>
       <c r="AK23"/>
+      <c r="AL23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1" t="n">
@@ -3789,10 +3861,10 @@
         <v>43413</v>
       </c>
       <c r="I24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" t="s">
         <v>81</v>
-      </c>
-      <c r="J24" t="s">
-        <v>80</v>
       </c>
       <c r="K24" t="n">
         <v>0.375</v>
@@ -3867,22 +3939,25 @@
       <c r="AI24"/>
       <c r="AJ24"/>
       <c r="AK24"/>
+      <c r="AL24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1" t="n">
@@ -3892,10 +3967,10 @@
         <v>43430</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="n">
         <v>5.852</v>
@@ -3970,22 +4045,25 @@
       <c r="AI25"/>
       <c r="AJ25"/>
       <c r="AK25"/>
+      <c r="AL25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1" t="n">
@@ -3995,10 +4073,10 @@
         <v>43427</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K26" t="n">
         <v>5.5</v>
@@ -4073,22 +4151,25 @@
       <c r="AI26"/>
       <c r="AJ26"/>
       <c r="AK26"/>
+      <c r="AL26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1" t="n">
@@ -4098,10 +4179,10 @@
         <v>43507</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27" t="n">
         <v>0.33</v>
@@ -4176,22 +4257,25 @@
       <c r="AI27"/>
       <c r="AJ27"/>
       <c r="AK27"/>
+      <c r="AL27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1" t="n">
@@ -4201,10 +4285,10 @@
         <v>43518</v>
       </c>
       <c r="I28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K28" t="n">
         <v>15</v>
@@ -4279,22 +4363,25 @@
       <c r="AI28"/>
       <c r="AJ28"/>
       <c r="AK28"/>
+      <c r="AL28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1" t="n">
@@ -4304,10 +4391,10 @@
         <v>43727</v>
       </c>
       <c r="I29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -4382,22 +4469,25 @@
       <c r="AI29"/>
       <c r="AJ29"/>
       <c r="AK29"/>
+      <c r="AL29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1" t="n">
@@ -4407,10 +4497,10 @@
         <v>43497</v>
       </c>
       <c r="I30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -4485,22 +4575,25 @@
       <c r="AI30"/>
       <c r="AJ30"/>
       <c r="AK30"/>
+      <c r="AL30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1" t="n">
@@ -4510,10 +4603,10 @@
         <v>44169</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -4588,22 +4681,25 @@
       <c r="AI31"/>
       <c r="AJ31"/>
       <c r="AK31"/>
+      <c r="AL31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1" t="n">
@@ -4613,10 +4709,10 @@
         <v>43829</v>
       </c>
       <c r="I32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -4691,22 +4787,25 @@
       <c r="AI32"/>
       <c r="AJ32"/>
       <c r="AK32"/>
+      <c r="AL32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1" t="n">
@@ -4716,10 +4815,10 @@
         <v>43690</v>
       </c>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K33" t="n">
         <v>5</v>
@@ -4794,22 +4893,25 @@
       <c r="AI33"/>
       <c r="AJ33"/>
       <c r="AK33"/>
+      <c r="AL33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1" t="n">
@@ -4819,10 +4921,10 @@
         <v>43796</v>
       </c>
       <c r="I34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K34" t="n">
         <v>2</v>
@@ -4897,22 +4999,25 @@
       <c r="AI34"/>
       <c r="AJ34"/>
       <c r="AK34"/>
+      <c r="AL34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1" t="n">
@@ -4922,10 +5027,10 @@
         <v>43698</v>
       </c>
       <c r="I35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K35"/>
       <c r="L35"/>
@@ -4996,22 +5101,25 @@
       <c r="AI35"/>
       <c r="AJ35"/>
       <c r="AK35"/>
+      <c r="AL35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1" t="n">
@@ -5021,10 +5129,10 @@
         <v>43458</v>
       </c>
       <c r="I36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K36"/>
       <c r="L36"/>
@@ -5095,22 +5203,25 @@
       <c r="AI36"/>
       <c r="AJ36"/>
       <c r="AK36"/>
+      <c r="AL36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1" t="n">
@@ -5120,10 +5231,10 @@
         <v>44034</v>
       </c>
       <c r="I37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K37" t="n">
         <v>10.5</v>
@@ -5198,22 +5309,25 @@
       <c r="AI37"/>
       <c r="AJ37"/>
       <c r="AK37"/>
+      <c r="AL37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="1" t="n">
@@ -5223,10 +5337,10 @@
         <v>44034</v>
       </c>
       <c r="I38" t="s">
+        <v>110</v>
+      </c>
+      <c r="J38" t="s">
         <v>109</v>
-      </c>
-      <c r="J38" t="s">
-        <v>108</v>
       </c>
       <c r="K38" t="n">
         <v>10.5</v>
@@ -5301,22 +5415,25 @@
       <c r="AI38"/>
       <c r="AJ38"/>
       <c r="AK38"/>
+      <c r="AL38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="1" t="n">
@@ -5326,10 +5443,10 @@
         <v>44034</v>
       </c>
       <c r="I39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K39" t="n">
         <v>13.5</v>
@@ -5404,22 +5521,25 @@
       <c r="AI39"/>
       <c r="AJ39"/>
       <c r="AK39"/>
+      <c r="AL39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="1" t="n">
@@ -5429,10 +5549,10 @@
         <v>44034</v>
       </c>
       <c r="I40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K40" t="n">
         <v>14</v>
@@ -5507,22 +5627,25 @@
       <c r="AI40"/>
       <c r="AJ40"/>
       <c r="AK40"/>
+      <c r="AL40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="1" t="n">
@@ -5532,10 +5655,10 @@
         <v>43894</v>
       </c>
       <c r="I41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -5610,22 +5733,25 @@
       <c r="AI41"/>
       <c r="AJ41"/>
       <c r="AK41"/>
+      <c r="AL41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="1" t="n">
@@ -5635,10 +5761,10 @@
         <v>43460</v>
       </c>
       <c r="I42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K42" t="n">
         <v>1.2</v>
@@ -5713,22 +5839,25 @@
       <c r="AI42"/>
       <c r="AJ42"/>
       <c r="AK42"/>
+      <c r="AL42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="1" t="n">
@@ -5738,10 +5867,10 @@
         <v>43426</v>
       </c>
       <c r="I43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
@@ -5812,22 +5941,25 @@
       <c r="AI43"/>
       <c r="AJ43"/>
       <c r="AK43"/>
+      <c r="AL43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F44"/>
       <c r="G44" s="1" t="n">
@@ -5837,10 +5969,10 @@
         <v>44155</v>
       </c>
       <c r="I44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K44" t="n">
         <v>0.7</v>
@@ -5915,22 +6047,25 @@
       <c r="AI44"/>
       <c r="AJ44"/>
       <c r="AK44"/>
+      <c r="AL44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F45"/>
       <c r="G45" s="1" t="n">
@@ -5940,10 +6075,10 @@
         <v>43507</v>
       </c>
       <c r="I45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -6018,22 +6153,25 @@
       <c r="AI45"/>
       <c r="AJ45"/>
       <c r="AK45"/>
+      <c r="AL45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F46"/>
       <c r="G46" s="1" t="n">
@@ -6043,10 +6181,10 @@
         <v>43507</v>
       </c>
       <c r="I46" t="s">
+        <v>124</v>
+      </c>
+      <c r="J46" t="s">
         <v>123</v>
-      </c>
-      <c r="J46" t="s">
-        <v>122</v>
       </c>
       <c r="K46" t="n">
         <v>0.0302</v>
@@ -6121,22 +6259,25 @@
       <c r="AI46"/>
       <c r="AJ46"/>
       <c r="AK46"/>
+      <c r="AL46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="1" t="n">
@@ -6146,10 +6287,10 @@
         <v>43507</v>
       </c>
       <c r="I47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K47" t="n">
         <v>0.2027</v>
@@ -6224,22 +6365,25 @@
       <c r="AI47"/>
       <c r="AJ47"/>
       <c r="AK47"/>
+      <c r="AL47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F48"/>
       <c r="G48" s="1" t="n">
@@ -6249,10 +6393,10 @@
         <v>43467</v>
       </c>
       <c r="I48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K48" t="n">
         <v>0.25</v>
@@ -6327,22 +6471,25 @@
       <c r="AI48"/>
       <c r="AJ48"/>
       <c r="AK48"/>
+      <c r="AL48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F49"/>
       <c r="G49" s="1" t="n">
@@ -6352,10 +6499,10 @@
         <v>43460</v>
       </c>
       <c r="I49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K49" t="n">
         <v>2</v>
@@ -6430,22 +6577,25 @@
       <c r="AI49"/>
       <c r="AJ49"/>
       <c r="AK49"/>
+      <c r="AL49" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="1" t="n">
@@ -6455,10 +6605,10 @@
         <v>43502</v>
       </c>
       <c r="I50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K50" t="n">
         <v>0.49</v>
@@ -6533,22 +6683,25 @@
       <c r="AI50"/>
       <c r="AJ50"/>
       <c r="AK50"/>
+      <c r="AL50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="1" t="n">
@@ -6558,10 +6711,10 @@
         <v>43573</v>
       </c>
       <c r="I51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K51" t="n">
         <v>0.5</v>
@@ -6636,22 +6789,25 @@
       <c r="AI51"/>
       <c r="AJ51"/>
       <c r="AK51"/>
+      <c r="AL51" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="1" t="n">
@@ -6661,10 +6817,10 @@
         <v>43894</v>
       </c>
       <c r="I52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -6739,22 +6895,25 @@
       <c r="AI52"/>
       <c r="AJ52"/>
       <c r="AK52"/>
+      <c r="AL52" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="1" t="n">
@@ -6764,10 +6923,10 @@
         <v>43528</v>
       </c>
       <c r="I53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -6842,22 +7001,25 @@
       <c r="AI53"/>
       <c r="AJ53"/>
       <c r="AK53"/>
+      <c r="AL53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="1" t="n">
@@ -6867,10 +7029,10 @@
         <v>43573</v>
       </c>
       <c r="I54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K54" t="n">
         <v>10</v>
@@ -6945,22 +7107,25 @@
       <c r="AI54"/>
       <c r="AJ54"/>
       <c r="AK54"/>
+      <c r="AL54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="1" t="n">
@@ -6970,10 +7135,10 @@
         <v>43480</v>
       </c>
       <c r="I55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K55" t="n">
         <v>0.15</v>
@@ -7048,22 +7213,25 @@
       <c r="AI55"/>
       <c r="AJ55"/>
       <c r="AK55"/>
+      <c r="AL55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F56"/>
       <c r="G56" s="1" t="n">
@@ -7073,10 +7241,10 @@
         <v>43608</v>
       </c>
       <c r="I56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K56" t="n">
         <v>0.51</v>
@@ -7151,22 +7319,25 @@
       <c r="AI56"/>
       <c r="AJ56"/>
       <c r="AK56"/>
+      <c r="AL56" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="1" t="n">
@@ -7176,10 +7347,10 @@
         <v>43598</v>
       </c>
       <c r="I57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K57"/>
       <c r="L57"/>
@@ -7250,22 +7421,25 @@
       <c r="AI57"/>
       <c r="AJ57"/>
       <c r="AK57"/>
+      <c r="AL57" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="1" t="n">
@@ -7275,10 +7449,10 @@
         <v>43481</v>
       </c>
       <c r="I58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K58" t="n">
         <v>0.05</v>
@@ -7353,22 +7527,25 @@
       <c r="AI58"/>
       <c r="AJ58"/>
       <c r="AK58"/>
+      <c r="AL58" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F59"/>
       <c r="G59" s="1" t="n">
@@ -7378,10 +7555,10 @@
         <v>43495</v>
       </c>
       <c r="I59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K59" t="n">
         <v>0.3</v>
@@ -7456,22 +7633,25 @@
       <c r="AI59"/>
       <c r="AJ59"/>
       <c r="AK59"/>
+      <c r="AL59" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60"/>
       <c r="G60" s="1" t="n">
@@ -7481,10 +7661,10 @@
         <v>43483</v>
       </c>
       <c r="I60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K60"/>
       <c r="L60"/>
@@ -7555,22 +7735,25 @@
       <c r="AI60"/>
       <c r="AJ60"/>
       <c r="AK60"/>
+      <c r="AL60" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="1" t="n">
@@ -7580,10 +7763,10 @@
         <v>43895</v>
       </c>
       <c r="I61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -7658,22 +7841,25 @@
       <c r="AI61"/>
       <c r="AJ61"/>
       <c r="AK61"/>
+      <c r="AL61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="n">
@@ -7683,10 +7869,10 @@
         <v>43697</v>
       </c>
       <c r="I62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K62"/>
       <c r="L62"/>
@@ -7757,22 +7943,25 @@
       <c r="AI62"/>
       <c r="AJ62"/>
       <c r="AK62"/>
+      <c r="AL62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="n">
@@ -7782,10 +7971,10 @@
         <v>43522</v>
       </c>
       <c r="I63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K63" t="n">
         <v>0.1178</v>
@@ -7860,22 +8049,25 @@
       <c r="AI63"/>
       <c r="AJ63"/>
       <c r="AK63"/>
+      <c r="AL63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="1" t="n">
@@ -7885,10 +8077,10 @@
         <v>43608</v>
       </c>
       <c r="I64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K64" t="n">
         <v>0.83</v>
@@ -7963,22 +8155,25 @@
       <c r="AI64"/>
       <c r="AJ64"/>
       <c r="AK64"/>
+      <c r="AL64" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F65"/>
       <c r="G65" s="1" t="n">
@@ -7988,10 +8183,10 @@
         <v>43770</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K65" t="n">
         <v>0.1</v>
@@ -8066,22 +8261,25 @@
       <c r="AI65"/>
       <c r="AJ65"/>
       <c r="AK65"/>
+      <c r="AL65" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F66"/>
       <c r="G66" s="1" t="n">
@@ -8091,10 +8289,10 @@
         <v>43609</v>
       </c>
       <c r="I66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K66" t="n">
         <v>15</v>
@@ -8169,22 +8367,25 @@
       <c r="AI66"/>
       <c r="AJ66"/>
       <c r="AK66"/>
+      <c r="AL66" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F67"/>
       <c r="G67" s="1" t="n">
@@ -8194,10 +8395,10 @@
         <v>43770</v>
       </c>
       <c r="I67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K67" t="n">
         <v>5.396294</v>
@@ -8272,22 +8473,25 @@
       <c r="AI67"/>
       <c r="AJ67"/>
       <c r="AK67"/>
+      <c r="AL67" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F68"/>
       <c r="G68" s="1" t="n">
@@ -8297,10 +8501,10 @@
         <v>43514</v>
       </c>
       <c r="I68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K68" t="n">
         <v>0.03</v>
@@ -8375,22 +8579,25 @@
       <c r="AI68"/>
       <c r="AJ68"/>
       <c r="AK68"/>
+      <c r="AL68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F69"/>
       <c r="G69" s="1" t="n">
@@ -8400,10 +8607,10 @@
         <v>43697</v>
       </c>
       <c r="I69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K69"/>
       <c r="L69"/>
@@ -8474,22 +8681,25 @@
       <c r="AI69"/>
       <c r="AJ69"/>
       <c r="AK69"/>
+      <c r="AL69" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F70"/>
       <c r="G70" s="1" t="n">
@@ -8499,10 +8709,10 @@
         <v>43881</v>
       </c>
       <c r="I70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K70" t="n">
         <v>0.1</v>
@@ -8577,22 +8787,25 @@
       <c r="AI70"/>
       <c r="AJ70"/>
       <c r="AK70"/>
+      <c r="AL70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F71"/>
       <c r="G71" s="1" t="n">
@@ -8602,10 +8815,10 @@
         <v>43763</v>
       </c>
       <c r="I71" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -8680,22 +8893,25 @@
       <c r="AI71"/>
       <c r="AJ71"/>
       <c r="AK71"/>
+      <c r="AL71" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F72"/>
       <c r="G72" s="1" t="n">
@@ -8705,10 +8921,10 @@
         <v>43770</v>
       </c>
       <c r="I72" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K72" t="n">
         <v>5.13249</v>
@@ -8783,22 +8999,25 @@
       <c r="AI72"/>
       <c r="AJ72"/>
       <c r="AK72"/>
+      <c r="AL72" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F73"/>
       <c r="G73" s="1" t="n">
@@ -8808,10 +9027,10 @@
         <v>43770</v>
       </c>
       <c r="I73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K73" t="n">
         <v>5.13249</v>
@@ -8886,22 +9105,25 @@
       <c r="AI73"/>
       <c r="AJ73"/>
       <c r="AK73"/>
+      <c r="AL73" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F74"/>
       <c r="G74" s="1" t="n">
@@ -8911,10 +9133,10 @@
         <v>43636</v>
       </c>
       <c r="I74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -8989,22 +9211,25 @@
       <c r="AI74"/>
       <c r="AJ74"/>
       <c r="AK74"/>
+      <c r="AL74" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F75"/>
       <c r="G75" s="1" t="n">
@@ -9014,10 +9239,10 @@
         <v>43805</v>
       </c>
       <c r="I75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J75" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K75" t="n">
         <v>4</v>
@@ -9092,22 +9317,25 @@
       <c r="AI75"/>
       <c r="AJ75"/>
       <c r="AK75"/>
+      <c r="AL75" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E76" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F76"/>
       <c r="G76" s="1" t="n">
@@ -9117,10 +9345,10 @@
         <v>43529</v>
       </c>
       <c r="I76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K76"/>
       <c r="L76"/>
@@ -9191,22 +9419,25 @@
       <c r="AI76"/>
       <c r="AJ76"/>
       <c r="AK76"/>
+      <c r="AL76" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F77"/>
       <c r="G77" s="1" t="n">
@@ -9216,10 +9447,10 @@
         <v>43697</v>
       </c>
       <c r="I77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K77"/>
       <c r="L77"/>
@@ -9290,22 +9521,25 @@
       <c r="AI77"/>
       <c r="AJ77"/>
       <c r="AK77"/>
+      <c r="AL77" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F78"/>
       <c r="G78" s="1" t="n">
@@ -9315,10 +9549,10 @@
         <v>43972</v>
       </c>
       <c r="I78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K78" t="n">
         <v>5</v>
@@ -9393,22 +9627,25 @@
       <c r="AI78"/>
       <c r="AJ78"/>
       <c r="AK78"/>
+      <c r="AL78" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E79" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F79"/>
       <c r="G79" s="1" t="n">
@@ -9418,10 +9655,10 @@
         <v>43594</v>
       </c>
       <c r="I79" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K79" t="n">
         <v>0.3</v>
@@ -9496,22 +9733,25 @@
       <c r="AI79"/>
       <c r="AJ79"/>
       <c r="AK79"/>
+      <c r="AL79" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F80"/>
       <c r="G80" s="1" t="n">
@@ -9521,10 +9761,10 @@
         <v>43697</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K80"/>
       <c r="L80"/>
@@ -9595,22 +9835,25 @@
       <c r="AI80"/>
       <c r="AJ80"/>
       <c r="AK80"/>
+      <c r="AL80" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F81"/>
       <c r="G81" s="1" t="n">
@@ -9620,10 +9863,10 @@
         <v>43613</v>
       </c>
       <c r="I81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K81" t="n">
         <v>5</v>
@@ -9698,22 +9941,25 @@
       <c r="AI81"/>
       <c r="AJ81"/>
       <c r="AK81"/>
+      <c r="AL81" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F82"/>
       <c r="G82" s="1" t="n">
@@ -9723,10 +9969,10 @@
         <v>43783</v>
       </c>
       <c r="I82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K82" t="n">
         <v>1.75</v>
@@ -9801,22 +10047,25 @@
       <c r="AI82"/>
       <c r="AJ82"/>
       <c r="AK82"/>
+      <c r="AL82" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F83"/>
       <c r="G83" s="1" t="n">
@@ -9826,10 +10075,10 @@
         <v>43770</v>
       </c>
       <c r="I83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K83"/>
       <c r="L83"/>
@@ -9900,22 +10149,25 @@
       <c r="AI83"/>
       <c r="AJ83"/>
       <c r="AK83"/>
+      <c r="AL83" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F84"/>
       <c r="G84" s="1" t="n">
@@ -9925,10 +10177,10 @@
         <v>43770</v>
       </c>
       <c r="I84" t="s">
+        <v>186</v>
+      </c>
+      <c r="J84" t="s">
         <v>185</v>
-      </c>
-      <c r="J84" t="s">
-        <v>184</v>
       </c>
       <c r="K84"/>
       <c r="L84"/>
@@ -9999,22 +10251,25 @@
       <c r="AI84"/>
       <c r="AJ84"/>
       <c r="AK84"/>
+      <c r="AL84" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F85"/>
       <c r="G85" s="1" t="n">
@@ -10024,10 +10279,10 @@
         <v>43770</v>
       </c>
       <c r="I85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K85"/>
       <c r="L85"/>
@@ -10098,22 +10353,25 @@
       <c r="AI85"/>
       <c r="AJ85"/>
       <c r="AK85"/>
+      <c r="AL85" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F86"/>
       <c r="G86" s="1" t="n">
@@ -10123,10 +10381,10 @@
         <v>43770</v>
       </c>
       <c r="I86" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K86"/>
       <c r="L86"/>
@@ -10197,22 +10455,25 @@
       <c r="AI86"/>
       <c r="AJ86"/>
       <c r="AK86"/>
+      <c r="AL86" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F87"/>
       <c r="G87" s="1" t="n">
@@ -10222,10 +10483,10 @@
         <v>43770</v>
       </c>
       <c r="I87" t="s">
+        <v>189</v>
+      </c>
+      <c r="J87" t="s">
         <v>188</v>
-      </c>
-      <c r="J87" t="s">
-        <v>187</v>
       </c>
       <c r="K87"/>
       <c r="L87"/>
@@ -10296,22 +10557,25 @@
       <c r="AI87"/>
       <c r="AJ87"/>
       <c r="AK87"/>
+      <c r="AL87" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F88"/>
       <c r="G88" s="1" t="n">
@@ -10321,10 +10585,10 @@
         <v>43770</v>
       </c>
       <c r="I88" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J88" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K88"/>
       <c r="L88"/>
@@ -10395,22 +10659,25 @@
       <c r="AI88"/>
       <c r="AJ88"/>
       <c r="AK88"/>
+      <c r="AL88" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F89"/>
       <c r="G89" s="1" t="n">
@@ -10420,10 +10687,10 @@
         <v>43770</v>
       </c>
       <c r="I89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J89" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K89"/>
       <c r="L89"/>
@@ -10494,22 +10761,25 @@
       <c r="AI89"/>
       <c r="AJ89"/>
       <c r="AK89"/>
+      <c r="AL89" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E90" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F90"/>
       <c r="G90" s="1" t="n">
@@ -10519,10 +10789,10 @@
         <v>43697</v>
       </c>
       <c r="I90" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K90"/>
       <c r="L90"/>
@@ -10593,22 +10863,25 @@
       <c r="AI90"/>
       <c r="AJ90"/>
       <c r="AK90"/>
+      <c r="AL90" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F91"/>
       <c r="G91" s="1" t="n">
@@ -10618,10 +10891,10 @@
         <v>43714</v>
       </c>
       <c r="I91" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J91" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K91" t="n">
         <v>0.75</v>
@@ -10696,22 +10969,25 @@
       <c r="AI91"/>
       <c r="AJ91"/>
       <c r="AK91"/>
+      <c r="AL91" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="1" t="n">
@@ -10721,10 +10997,10 @@
         <v>43697</v>
       </c>
       <c r="I92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K92"/>
       <c r="L92"/>
@@ -10795,22 +11071,25 @@
       <c r="AI92"/>
       <c r="AJ92"/>
       <c r="AK92"/>
+      <c r="AL92" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E93" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="1" t="n">
@@ -10820,10 +11099,10 @@
         <v>43697</v>
       </c>
       <c r="I93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J93" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K93"/>
       <c r="L93"/>
@@ -10894,22 +11173,25 @@
       <c r="AI93"/>
       <c r="AJ93"/>
       <c r="AK93"/>
+      <c r="AL93" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="1" t="n">
@@ -10919,10 +11201,10 @@
         <v>44032</v>
       </c>
       <c r="I94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J94" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K94" t="n">
         <v>4.4</v>
@@ -10997,22 +11279,25 @@
       <c r="AI94"/>
       <c r="AJ94"/>
       <c r="AK94"/>
+      <c r="AL94" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E95" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="1" t="n">
@@ -11022,10 +11307,10 @@
         <v>44145</v>
       </c>
       <c r="I95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J95" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K95" t="n">
         <v>0.03</v>
@@ -11100,22 +11385,25 @@
       <c r="AI95"/>
       <c r="AJ95"/>
       <c r="AK95"/>
+      <c r="AL95" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E96" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="1" t="n">
@@ -11125,10 +11413,10 @@
         <v>44145</v>
       </c>
       <c r="I96" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J96" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K96" t="n">
         <v>0.22</v>
@@ -11203,22 +11491,25 @@
       <c r="AI96"/>
       <c r="AJ96"/>
       <c r="AK96"/>
+      <c r="AL96" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="1" t="n">
@@ -11228,10 +11519,10 @@
         <v>43894</v>
       </c>
       <c r="I97" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -11306,22 +11597,25 @@
       <c r="AI97"/>
       <c r="AJ97"/>
       <c r="AK97"/>
+      <c r="AL97" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="1" t="n">
@@ -11331,10 +11625,10 @@
         <v>43697</v>
       </c>
       <c r="I98" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J98" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K98"/>
       <c r="L98"/>
@@ -11405,22 +11699,25 @@
       <c r="AI98"/>
       <c r="AJ98"/>
       <c r="AK98"/>
+      <c r="AL98" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E99" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="1" t="n">
@@ -11430,10 +11727,10 @@
         <v>43629</v>
       </c>
       <c r="I99" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K99" t="n">
         <v>5</v>
@@ -11508,22 +11805,25 @@
       <c r="AI99"/>
       <c r="AJ99"/>
       <c r="AK99"/>
+      <c r="AL99" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E100" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="1" t="n">
@@ -11533,10 +11833,10 @@
         <v>43907</v>
       </c>
       <c r="I100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K100"/>
       <c r="L100"/>
@@ -11607,22 +11907,25 @@
       <c r="AI100"/>
       <c r="AJ100"/>
       <c r="AK100"/>
+      <c r="AL100" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E101" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="1" t="n">
@@ -11632,10 +11935,10 @@
         <v>43907</v>
       </c>
       <c r="I101" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K101"/>
       <c r="L101"/>
@@ -11706,22 +12009,25 @@
       <c r="AI101"/>
       <c r="AJ101"/>
       <c r="AK101"/>
+      <c r="AL101" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E102" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="1" t="n">
@@ -11731,10 +12037,10 @@
         <v>43633</v>
       </c>
       <c r="I102" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J102" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K102" t="n">
         <v>0.5</v>
@@ -11809,22 +12115,25 @@
       <c r="AI102"/>
       <c r="AJ102"/>
       <c r="AK102"/>
+      <c r="AL102" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E103" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="1" t="n">
@@ -11834,10 +12143,10 @@
         <v>43770</v>
       </c>
       <c r="I103" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J103" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K103"/>
       <c r="L103"/>
@@ -11908,22 +12217,25 @@
       <c r="AI103"/>
       <c r="AJ103"/>
       <c r="AK103"/>
+      <c r="AL103" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="1" t="n">
@@ -11933,10 +12245,10 @@
         <v>43770</v>
       </c>
       <c r="I104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J104" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K104" t="n">
         <v>0.366436</v>
@@ -12011,22 +12323,25 @@
       <c r="AI104"/>
       <c r="AJ104"/>
       <c r="AK104"/>
+      <c r="AL104" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="1" t="n">
@@ -12036,10 +12351,10 @@
         <v>43770</v>
       </c>
       <c r="I105" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J105" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K105" t="n">
         <v>0.348558</v>
@@ -12114,22 +12429,25 @@
       <c r="AI105"/>
       <c r="AJ105"/>
       <c r="AK105"/>
+      <c r="AL105" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F106"/>
       <c r="G106" s="1" t="n">
@@ -12139,10 +12457,10 @@
         <v>43770</v>
       </c>
       <c r="I106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J106" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K106" t="n">
         <v>0.285006</v>
@@ -12217,22 +12535,25 @@
       <c r="AI106"/>
       <c r="AJ106"/>
       <c r="AK106"/>
+      <c r="AL106" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E107" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F107"/>
       <c r="G107" s="1" t="n">
@@ -12242,10 +12563,10 @@
         <v>43816</v>
       </c>
       <c r="I107" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J107" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K107" t="n">
         <v>3.5</v>
@@ -12320,22 +12641,25 @@
       <c r="AI107"/>
       <c r="AJ107"/>
       <c r="AK107"/>
+      <c r="AL107" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D108" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E108" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="1" t="n">
@@ -12345,10 +12669,10 @@
         <v>43770</v>
       </c>
       <c r="I108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K108"/>
       <c r="L108"/>
@@ -12419,22 +12743,25 @@
       <c r="AI108"/>
       <c r="AJ108"/>
       <c r="AK108"/>
+      <c r="AL108" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E109" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="1" t="n">
@@ -12444,10 +12771,10 @@
         <v>43629</v>
       </c>
       <c r="I109" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J109" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -12522,22 +12849,25 @@
       <c r="AI109"/>
       <c r="AJ109"/>
       <c r="AK109"/>
+      <c r="AL109" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E110" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="1" t="n">
@@ -12547,10 +12877,10 @@
         <v>43629</v>
       </c>
       <c r="I110" t="s">
+        <v>223</v>
+      </c>
+      <c r="J110" t="s">
         <v>222</v>
-      </c>
-      <c r="J110" t="s">
-        <v>221</v>
       </c>
       <c r="K110" t="n">
         <v>0.166793</v>
@@ -12625,22 +12955,25 @@
       <c r="AI110"/>
       <c r="AJ110"/>
       <c r="AK110"/>
+      <c r="AL110" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E111" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="1" t="n">
@@ -12650,10 +12983,10 @@
         <v>43647</v>
       </c>
       <c r="I111" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J111" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K111" t="n">
         <v>5</v>
@@ -12728,22 +13061,25 @@
       <c r="AI111"/>
       <c r="AJ111"/>
       <c r="AK111"/>
+      <c r="AL111" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E112" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="1" t="n">
@@ -12753,10 +13089,10 @@
         <v>43647</v>
       </c>
       <c r="I112" t="s">
+        <v>226</v>
+      </c>
+      <c r="J112" t="s">
         <v>225</v>
-      </c>
-      <c r="J112" t="s">
-        <v>224</v>
       </c>
       <c r="K112" t="n">
         <v>5</v>
@@ -12831,22 +13167,25 @@
       <c r="AI112"/>
       <c r="AJ112"/>
       <c r="AK112"/>
+      <c r="AL112" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="1" t="n">
@@ -12856,10 +13195,10 @@
         <v>44034</v>
       </c>
       <c r="I113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J113" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -12934,22 +13273,25 @@
       <c r="AI113"/>
       <c r="AJ113"/>
       <c r="AK113"/>
+      <c r="AL113" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E114" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="1" t="n">
@@ -12959,10 +13301,10 @@
         <v>43818</v>
       </c>
       <c r="I114" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J114" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K114" t="n">
         <v>0.8</v>
@@ -13037,22 +13379,25 @@
       <c r="AI114"/>
       <c r="AJ114"/>
       <c r="AK114"/>
+      <c r="AL114" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E115" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="1" t="n">
@@ -13062,10 +13407,10 @@
         <v>44034</v>
       </c>
       <c r="I115" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J115" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K115" t="n">
         <v>7</v>
@@ -13140,22 +13485,25 @@
       <c r="AI115"/>
       <c r="AJ115"/>
       <c r="AK115"/>
+      <c r="AL115" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E116" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F116"/>
       <c r="G116" s="1" t="n">
@@ -13165,10 +13513,10 @@
         <v>44034</v>
       </c>
       <c r="I116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -13243,22 +13591,25 @@
       <c r="AI116"/>
       <c r="AJ116"/>
       <c r="AK116"/>
+      <c r="AL116" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E117" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="1" t="n">
@@ -13268,10 +13619,10 @@
         <v>43816</v>
       </c>
       <c r="I117" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K117" t="n">
         <v>0.785</v>
@@ -13346,22 +13697,25 @@
       <c r="AI117"/>
       <c r="AJ117"/>
       <c r="AK117"/>
+      <c r="AL117" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E118" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="1" t="n">
@@ -13371,10 +13725,10 @@
         <v>44132</v>
       </c>
       <c r="I118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -13449,22 +13803,25 @@
       <c r="AI118"/>
       <c r="AJ118"/>
       <c r="AK118"/>
+      <c r="AL118" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E119" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="1" t="n">
@@ -13474,10 +13831,10 @@
         <v>44132</v>
       </c>
       <c r="I119" t="s">
+        <v>236</v>
+      </c>
+      <c r="J119" t="s">
         <v>235</v>
-      </c>
-      <c r="J119" t="s">
-        <v>234</v>
       </c>
       <c r="K119" t="n">
         <v>1.030017</v>
@@ -13552,22 +13909,25 @@
       <c r="AI119"/>
       <c r="AJ119"/>
       <c r="AK119"/>
+      <c r="AL119" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E120" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="1" t="n">
@@ -13577,10 +13937,10 @@
         <v>44132</v>
       </c>
       <c r="I120" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K120" t="n">
         <v>0.068004</v>
@@ -13655,22 +14015,25 @@
       <c r="AI120"/>
       <c r="AJ120"/>
       <c r="AK120"/>
+      <c r="AL120" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="1" t="n">
@@ -13680,10 +14043,10 @@
         <v>43887</v>
       </c>
       <c r="I121" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J121" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K121"/>
       <c r="L121"/>
@@ -13754,22 +14117,25 @@
       <c r="AI121"/>
       <c r="AJ121"/>
       <c r="AK121"/>
+      <c r="AL121" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F122"/>
       <c r="G122" s="1" t="n">
@@ -13779,10 +14145,10 @@
         <v>43887</v>
       </c>
       <c r="I122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J122" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K122"/>
       <c r="L122"/>
@@ -13853,22 +14219,25 @@
       <c r="AI122"/>
       <c r="AJ122"/>
       <c r="AK122"/>
+      <c r="AL122" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="1" t="n">
@@ -13878,10 +14247,10 @@
         <v>43887</v>
       </c>
       <c r="I123" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J123" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K123"/>
       <c r="L123"/>
@@ -13952,22 +14321,25 @@
       <c r="AI123"/>
       <c r="AJ123"/>
       <c r="AK123"/>
+      <c r="AL123" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F124"/>
       <c r="G124" s="1" t="n">
@@ -13977,10 +14349,10 @@
         <v>43887</v>
       </c>
       <c r="I124" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J124" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K124"/>
       <c r="L124"/>
@@ -14051,22 +14423,25 @@
       <c r="AI124"/>
       <c r="AJ124"/>
       <c r="AK124"/>
+      <c r="AL124" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="1" t="n">
@@ -14076,10 +14451,10 @@
         <v>43887</v>
       </c>
       <c r="I125" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J125" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K125"/>
       <c r="L125"/>
@@ -14150,22 +14525,25 @@
       <c r="AI125"/>
       <c r="AJ125"/>
       <c r="AK125"/>
+      <c r="AL125" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="1" t="n">
@@ -14175,10 +14553,10 @@
         <v>43630</v>
       </c>
       <c r="I126" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K126" t="n">
         <v>2.14</v>
@@ -14253,22 +14631,25 @@
       <c r="AI126"/>
       <c r="AJ126"/>
       <c r="AK126"/>
+      <c r="AL126" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E127" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F127"/>
       <c r="G127" s="1" t="n">
@@ -14278,10 +14659,10 @@
         <v>43957</v>
       </c>
       <c r="I127" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J127" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K127" t="n">
         <v>0.715</v>
@@ -14356,22 +14737,25 @@
       <c r="AI127"/>
       <c r="AJ127"/>
       <c r="AK127"/>
+      <c r="AL127" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E128" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F128"/>
       <c r="G128" s="1" t="n">
@@ -14381,10 +14765,10 @@
         <v>43816</v>
       </c>
       <c r="I128" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J128" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K128" t="n">
         <v>0.8</v>
@@ -14459,22 +14843,25 @@
       <c r="AI128"/>
       <c r="AJ128"/>
       <c r="AK128"/>
+      <c r="AL128" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F129"/>
       <c r="G129" s="1" t="n">
@@ -14484,10 +14871,10 @@
         <v>43770</v>
       </c>
       <c r="I129" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J129" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K129" t="n">
         <v>0.4</v>
@@ -14562,22 +14949,25 @@
       <c r="AI129"/>
       <c r="AJ129"/>
       <c r="AK129"/>
+      <c r="AL129" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E130" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F130"/>
       <c r="G130" s="1" t="n">
@@ -14587,10 +14977,10 @@
         <v>43797</v>
       </c>
       <c r="I130" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J130" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K130"/>
       <c r="L130"/>
@@ -14661,22 +15051,25 @@
       <c r="AI130"/>
       <c r="AJ130"/>
       <c r="AK130"/>
+      <c r="AL130" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E131" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F131"/>
       <c r="G131" s="1" t="n">
@@ -14686,10 +15079,10 @@
         <v>43951</v>
       </c>
       <c r="I131" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J131" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K131" t="n">
         <v>7.62</v>
@@ -14764,22 +15157,25 @@
       <c r="AI131"/>
       <c r="AJ131"/>
       <c r="AK131"/>
+      <c r="AL131" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E132" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F132"/>
       <c r="G132" s="1" t="n">
@@ -14789,10 +15185,10 @@
         <v>43698</v>
       </c>
       <c r="I132" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J132" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K132" t="n">
         <v>0.55</v>
@@ -14867,22 +15263,25 @@
       <c r="AI132"/>
       <c r="AJ132"/>
       <c r="AK132"/>
+      <c r="AL132" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E133" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F133"/>
       <c r="G133" s="1" t="n">
@@ -14892,10 +15291,10 @@
         <v>43942</v>
       </c>
       <c r="I133" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J133" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K133" t="n">
         <v>2</v>
@@ -14970,22 +15369,25 @@
       <c r="AI133"/>
       <c r="AJ133"/>
       <c r="AK133"/>
+      <c r="AL133" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E134" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F134"/>
       <c r="G134" s="1" t="n">
@@ -14995,10 +15397,10 @@
         <v>43951</v>
       </c>
       <c r="I134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J134" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K134" t="n">
         <v>0.05</v>
@@ -15073,22 +15475,25 @@
       <c r="AI134"/>
       <c r="AJ134"/>
       <c r="AK134"/>
+      <c r="AL134" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E135" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F135"/>
       <c r="G135" s="1" t="n">
@@ -15098,10 +15503,10 @@
         <v>43769</v>
       </c>
       <c r="I135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J135" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -15176,22 +15581,25 @@
       <c r="AI135"/>
       <c r="AJ135"/>
       <c r="AK135"/>
+      <c r="AL135" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E136" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F136"/>
       <c r="G136" s="1" t="n">
@@ -15201,10 +15609,10 @@
         <v>43769</v>
       </c>
       <c r="I136" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J136" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K136" t="n">
         <v>1.037404</v>
@@ -15279,22 +15687,25 @@
       <c r="AI136"/>
       <c r="AJ136"/>
       <c r="AK136"/>
+      <c r="AL136" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E137" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F137"/>
       <c r="G137" s="1" t="n">
@@ -15304,10 +15715,10 @@
         <v>43769</v>
       </c>
       <c r="I137" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J137" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K137" t="n">
         <v>0.65517</v>
@@ -15382,22 +15793,25 @@
       <c r="AI137"/>
       <c r="AJ137"/>
       <c r="AK137"/>
+      <c r="AL137" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E138" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F138"/>
       <c r="G138" s="1" t="n">
@@ -15407,10 +15821,10 @@
         <v>43697</v>
       </c>
       <c r="I138" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J138" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K138"/>
       <c r="L138"/>
@@ -15481,22 +15895,25 @@
       <c r="AI138"/>
       <c r="AJ138"/>
       <c r="AK138"/>
+      <c r="AL138" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E139" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F139"/>
       <c r="G139" s="1" t="n">
@@ -15506,10 +15923,10 @@
         <v>43714</v>
       </c>
       <c r="I139" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J139" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K139" t="n">
         <v>0.3</v>
@@ -15584,22 +16001,25 @@
       <c r="AI139"/>
       <c r="AJ139"/>
       <c r="AK139"/>
+      <c r="AL139" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E140" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F140"/>
       <c r="G140" s="1" t="n">
@@ -15609,10 +16029,10 @@
         <v>43861</v>
       </c>
       <c r="I140" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J140" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K140" t="n">
         <v>4.2</v>
@@ -15687,22 +16107,25 @@
       <c r="AI140"/>
       <c r="AJ140"/>
       <c r="AK140"/>
+      <c r="AL140" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E141" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F141"/>
       <c r="G141" s="1" t="n">
@@ -15712,10 +16135,10 @@
         <v>43697</v>
       </c>
       <c r="I141" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J141" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K141"/>
       <c r="L141"/>
@@ -15786,22 +16209,25 @@
       <c r="AI141"/>
       <c r="AJ141"/>
       <c r="AK141"/>
+      <c r="AL141" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E142" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F142"/>
       <c r="G142" s="1" t="n">
@@ -15811,10 +16237,10 @@
         <v>43718</v>
       </c>
       <c r="I142" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J142" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K142" t="n">
         <v>5</v>
@@ -15889,22 +16315,25 @@
       <c r="AI142"/>
       <c r="AJ142"/>
       <c r="AK142"/>
+      <c r="AL142" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E143" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F143"/>
       <c r="G143" s="1" t="n">
@@ -15914,10 +16343,10 @@
         <v>43747</v>
       </c>
       <c r="I143" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J143" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K143"/>
       <c r="L143"/>
@@ -15988,22 +16417,25 @@
       <c r="AI143"/>
       <c r="AJ143"/>
       <c r="AK143"/>
+      <c r="AL143" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F144"/>
       <c r="G144" s="1" t="n">
@@ -16013,10 +16445,10 @@
         <v>43803</v>
       </c>
       <c r="I144" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J144" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K144" t="n">
         <v>0.34989</v>
@@ -16091,22 +16523,25 @@
       <c r="AI144"/>
       <c r="AJ144"/>
       <c r="AK144"/>
+      <c r="AL144" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E145" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F145"/>
       <c r="G145" s="1" t="n">
@@ -16116,10 +16551,10 @@
         <v>44096</v>
       </c>
       <c r="I145" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J145" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K145" t="n">
         <v>8</v>
@@ -16194,22 +16629,25 @@
       <c r="AI145"/>
       <c r="AJ145"/>
       <c r="AK145"/>
+      <c r="AL145" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E146" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F146"/>
       <c r="G146" s="1" t="n">
@@ -16219,10 +16657,10 @@
         <v>43692</v>
       </c>
       <c r="I146" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J146" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K146" t="n">
         <v>1</v>
@@ -16297,22 +16735,25 @@
       <c r="AI146"/>
       <c r="AJ146"/>
       <c r="AK146"/>
+      <c r="AL146" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D147" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E147" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F147"/>
       <c r="G147" s="1" t="n">
@@ -16322,10 +16763,10 @@
         <v>43725</v>
       </c>
       <c r="I147" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J147" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K147" t="n">
         <v>5</v>
@@ -16400,22 +16841,25 @@
       <c r="AI147"/>
       <c r="AJ147"/>
       <c r="AK147"/>
+      <c r="AL147" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E148" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F148"/>
       <c r="G148" s="1" t="n">
@@ -16425,10 +16869,10 @@
         <v>43725</v>
       </c>
       <c r="I148" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K148" t="n">
         <v>2.5</v>
@@ -16503,22 +16947,25 @@
       <c r="AI148"/>
       <c r="AJ148"/>
       <c r="AK148"/>
+      <c r="AL148" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E149" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F149"/>
       <c r="G149" s="1" t="n">
@@ -16528,10 +16975,10 @@
         <v>43728</v>
       </c>
       <c r="I149" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K149" t="n">
         <v>7</v>
@@ -16606,22 +17053,25 @@
       <c r="AI149"/>
       <c r="AJ149"/>
       <c r="AK149"/>
+      <c r="AL149" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E150" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F150"/>
       <c r="G150" s="1" t="n">
@@ -16631,10 +17081,10 @@
         <v>44096</v>
       </c>
       <c r="I150" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J150" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K150" t="n">
         <v>2</v>
@@ -16709,22 +17159,25 @@
       <c r="AI150"/>
       <c r="AJ150"/>
       <c r="AK150"/>
+      <c r="AL150" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C151" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E151" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F151"/>
       <c r="G151" s="1" t="n">
@@ -16734,10 +17187,10 @@
         <v>43697</v>
       </c>
       <c r="I151" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J151" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K151"/>
       <c r="L151"/>
@@ -16808,22 +17261,25 @@
       <c r="AI151"/>
       <c r="AJ151"/>
       <c r="AK151"/>
+      <c r="AL151" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E152" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F152"/>
       <c r="G152" s="1" t="n">
@@ -16833,10 +17289,10 @@
         <v>43697</v>
       </c>
       <c r="I152" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J152" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K152"/>
       <c r="L152"/>
@@ -16907,22 +17363,25 @@
       <c r="AI152"/>
       <c r="AJ152"/>
       <c r="AK152"/>
+      <c r="AL152" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E153" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F153"/>
       <c r="G153" s="1" t="n">
@@ -16932,10 +17391,10 @@
         <v>43697</v>
       </c>
       <c r="I153" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J153" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K153"/>
       <c r="L153"/>
@@ -17006,22 +17465,25 @@
       <c r="AI153"/>
       <c r="AJ153"/>
       <c r="AK153"/>
+      <c r="AL153" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C154" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E154" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F154"/>
       <c r="G154" s="1" t="n">
@@ -17031,10 +17493,10 @@
         <v>43697</v>
       </c>
       <c r="I154" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J154" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K154"/>
       <c r="L154"/>
@@ -17105,22 +17567,25 @@
       <c r="AI154"/>
       <c r="AJ154"/>
       <c r="AK154"/>
+      <c r="AL154" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E155" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F155"/>
       <c r="G155" s="1" t="n">
@@ -17130,10 +17595,10 @@
         <v>43697</v>
       </c>
       <c r="I155" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J155" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K155"/>
       <c r="L155"/>
@@ -17204,22 +17669,25 @@
       <c r="AI155"/>
       <c r="AJ155"/>
       <c r="AK155"/>
+      <c r="AL155" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C156" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E156" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F156"/>
       <c r="G156" s="1" t="n">
@@ -17229,10 +17697,10 @@
         <v>43881</v>
       </c>
       <c r="I156" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J156" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K156" t="n">
         <v>0.1426</v>
@@ -17307,22 +17775,25 @@
       <c r="AI156"/>
       <c r="AJ156"/>
       <c r="AK156"/>
+      <c r="AL156" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D157" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E157" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F157"/>
       <c r="G157" s="1" t="n">
@@ -17332,10 +17803,10 @@
         <v>43881</v>
       </c>
       <c r="I157" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J157" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K157" t="n">
         <v>0.1</v>
@@ -17410,22 +17881,25 @@
       <c r="AI157"/>
       <c r="AJ157"/>
       <c r="AK157"/>
+      <c r="AL157" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E158" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F158"/>
       <c r="G158" s="1" t="n">
@@ -17435,10 +17909,10 @@
         <v>43899</v>
       </c>
       <c r="I158" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J158" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K158"/>
       <c r="L158"/>
@@ -17509,22 +17983,25 @@
       <c r="AI158"/>
       <c r="AJ158"/>
       <c r="AK158"/>
+      <c r="AL158" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C159" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D159" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E159" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F159"/>
       <c r="G159" s="1" t="n">
@@ -17534,10 +18011,10 @@
         <v>43899</v>
       </c>
       <c r="I159" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J159" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K159"/>
       <c r="L159"/>
@@ -17608,22 +18085,25 @@
       <c r="AI159"/>
       <c r="AJ159"/>
       <c r="AK159"/>
+      <c r="AL159" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D160" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E160" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F160"/>
       <c r="G160" s="1" t="n">
@@ -17633,10 +18113,10 @@
         <v>43899</v>
       </c>
       <c r="I160" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J160" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K160"/>
       <c r="L160"/>
@@ -17707,22 +18187,25 @@
       <c r="AI160"/>
       <c r="AJ160"/>
       <c r="AK160"/>
+      <c r="AL160" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B161" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E161" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F161"/>
       <c r="G161" s="1" t="n">
@@ -17732,10 +18215,10 @@
         <v>43900</v>
       </c>
       <c r="I161" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J161" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K161"/>
       <c r="L161"/>
@@ -17806,22 +18289,25 @@
       <c r="AI161"/>
       <c r="AJ161"/>
       <c r="AK161"/>
+      <c r="AL161" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B162" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E162" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F162"/>
       <c r="G162" s="1" t="n">
@@ -17831,10 +18317,10 @@
         <v>43907</v>
       </c>
       <c r="I162" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J162" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K162"/>
       <c r="L162"/>
@@ -17905,22 +18391,25 @@
       <c r="AI162"/>
       <c r="AJ162"/>
       <c r="AK162"/>
+      <c r="AL162" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B163" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E163" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F163"/>
       <c r="G163" s="1" t="n">
@@ -17930,10 +18419,10 @@
         <v>43907</v>
       </c>
       <c r="I163" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J163" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K163"/>
       <c r="L163"/>
@@ -18004,22 +18493,25 @@
       <c r="AI163"/>
       <c r="AJ163"/>
       <c r="AK163"/>
+      <c r="AL163" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B164" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C164" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D164" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E164" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F164"/>
       <c r="G164" s="1" t="n">
@@ -18029,10 +18521,10 @@
         <v>43768</v>
       </c>
       <c r="I164" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J164" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -18107,22 +18599,25 @@
       <c r="AI164"/>
       <c r="AJ164"/>
       <c r="AK164"/>
+      <c r="AL164" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E165" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F165"/>
       <c r="G165" s="1" t="n">
@@ -18132,10 +18627,10 @@
         <v>43768</v>
       </c>
       <c r="I165" t="s">
+        <v>296</v>
+      </c>
+      <c r="J165" t="s">
         <v>295</v>
-      </c>
-      <c r="J165" t="s">
-        <v>294</v>
       </c>
       <c r="K165" t="n">
         <v>0.08675</v>
@@ -18210,22 +18705,25 @@
       <c r="AI165"/>
       <c r="AJ165"/>
       <c r="AK165"/>
+      <c r="AL165" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D166" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E166" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F166"/>
       <c r="G166" s="1" t="n">
@@ -18235,10 +18733,10 @@
         <v>43768</v>
       </c>
       <c r="I166" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J166" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K166" t="n">
         <v>0.02865</v>
@@ -18313,22 +18811,25 @@
       <c r="AI166"/>
       <c r="AJ166"/>
       <c r="AK166"/>
+      <c r="AL166" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B167" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D167" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E167" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F167"/>
       <c r="G167" s="1" t="n">
@@ -18338,10 +18839,10 @@
         <v>43857</v>
       </c>
       <c r="I167" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J167" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K167"/>
       <c r="L167"/>
@@ -18412,22 +18913,25 @@
       <c r="AI167"/>
       <c r="AJ167"/>
       <c r="AK167"/>
+      <c r="AL167" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D168" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E168" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F168"/>
       <c r="G168" s="1" t="n">
@@ -18437,10 +18941,10 @@
         <v>43857</v>
       </c>
       <c r="I168" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J168" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K168"/>
       <c r="L168"/>
@@ -18511,22 +19015,25 @@
       <c r="AI168"/>
       <c r="AJ168"/>
       <c r="AK168"/>
+      <c r="AL168" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B169" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C169" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E169" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F169"/>
       <c r="G169" s="1" t="n">
@@ -18536,10 +19043,10 @@
         <v>43857</v>
       </c>
       <c r="I169" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J169" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K169"/>
       <c r="L169"/>
@@ -18610,22 +19117,25 @@
       <c r="AI169"/>
       <c r="AJ169"/>
       <c r="AK169"/>
+      <c r="AL169" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B170" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E170" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F170"/>
       <c r="G170" s="1" t="n">
@@ -18635,10 +19145,10 @@
         <v>43907</v>
       </c>
       <c r="I170" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J170" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K170"/>
       <c r="L170"/>
@@ -18709,22 +19219,25 @@
       <c r="AI170"/>
       <c r="AJ170"/>
       <c r="AK170"/>
+      <c r="AL170" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C171" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E171" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F171"/>
       <c r="G171" s="1" t="n">
@@ -18734,10 +19247,10 @@
         <v>43907</v>
       </c>
       <c r="I171" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J171" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K171"/>
       <c r="L171"/>
@@ -18808,22 +19321,25 @@
       <c r="AI171"/>
       <c r="AJ171"/>
       <c r="AK171"/>
+      <c r="AL171" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C172" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D172" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E172" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F172"/>
       <c r="G172" s="1" t="n">
@@ -18833,10 +19349,10 @@
         <v>43753</v>
       </c>
       <c r="I172" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J172" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K172"/>
       <c r="L172"/>
@@ -18907,22 +19423,25 @@
       <c r="AI172"/>
       <c r="AJ172"/>
       <c r="AK172"/>
+      <c r="AL172" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C173" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F173"/>
       <c r="G173" s="1" t="n">
@@ -18932,10 +19451,10 @@
         <v>43721</v>
       </c>
       <c r="I173" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J173" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K173"/>
       <c r="L173"/>
@@ -19006,22 +19525,25 @@
       <c r="AI173"/>
       <c r="AJ173"/>
       <c r="AK173"/>
+      <c r="AL173" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B174" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C174" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F174"/>
       <c r="G174" s="1" t="n">
@@ -19031,10 +19553,10 @@
         <v>43721</v>
       </c>
       <c r="I174" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J174" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K174"/>
       <c r="L174"/>
@@ -19105,22 +19627,25 @@
       <c r="AI174"/>
       <c r="AJ174"/>
       <c r="AK174"/>
+      <c r="AL174" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B175" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C175" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D175" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E175" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F175"/>
       <c r="G175" s="1" t="n">
@@ -19130,10 +19655,10 @@
         <v>43826</v>
       </c>
       <c r="I175" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J175" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K175"/>
       <c r="L175"/>
@@ -19204,22 +19729,25 @@
       <c r="AI175"/>
       <c r="AJ175"/>
       <c r="AK175"/>
+      <c r="AL175" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B176" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C176" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F176"/>
       <c r="G176" s="1" t="n">
@@ -19229,10 +19757,10 @@
         <v>43826</v>
       </c>
       <c r="I176" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J176" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K176"/>
       <c r="L176"/>
@@ -19303,22 +19831,25 @@
       <c r="AI176"/>
       <c r="AJ176"/>
       <c r="AK176"/>
+      <c r="AL176" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B177" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C177" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E177" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F177"/>
       <c r="G177" s="1" t="n">
@@ -19328,10 +19859,10 @@
         <v>43826</v>
       </c>
       <c r="I177" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J177" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K177"/>
       <c r="L177"/>
@@ -19402,22 +19933,25 @@
       <c r="AI177"/>
       <c r="AJ177"/>
       <c r="AK177"/>
+      <c r="AL177" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B178" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C178" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F178"/>
       <c r="G178" s="1" t="n">
@@ -19427,10 +19961,10 @@
         <v>43826</v>
       </c>
       <c r="I178" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J178" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K178"/>
       <c r="L178"/>
@@ -19501,22 +20035,25 @@
       <c r="AI178"/>
       <c r="AJ178"/>
       <c r="AK178"/>
+      <c r="AL178" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B179" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C179" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E179" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F179"/>
       <c r="G179" s="1" t="n">
@@ -19526,10 +20063,10 @@
         <v>43753</v>
       </c>
       <c r="I179" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J179" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K179"/>
       <c r="L179"/>
@@ -19600,22 +20137,25 @@
       <c r="AI179"/>
       <c r="AJ179"/>
       <c r="AK179"/>
+      <c r="AL179" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B180" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D180" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E180" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F180"/>
       <c r="G180" s="1" t="n">
@@ -19625,10 +20165,10 @@
         <v>43753</v>
       </c>
       <c r="I180" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J180" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K180"/>
       <c r="L180"/>
@@ -19699,22 +20239,25 @@
       <c r="AI180"/>
       <c r="AJ180"/>
       <c r="AK180"/>
+      <c r="AL180" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B181" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C181" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D181" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E181" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F181"/>
       <c r="G181" s="1" t="n">
@@ -19724,10 +20267,10 @@
         <v>43747</v>
       </c>
       <c r="I181" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J181" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K181"/>
       <c r="L181"/>
@@ -19798,22 +20341,25 @@
       <c r="AI181"/>
       <c r="AJ181"/>
       <c r="AK181"/>
+      <c r="AL181" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B182" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C182" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D182" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E182" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F182"/>
       <c r="G182" s="1" t="n">
@@ -19823,10 +20369,10 @@
         <v>43879</v>
       </c>
       <c r="I182" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J182" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K182"/>
       <c r="L182"/>
@@ -19897,22 +20443,25 @@
       <c r="AI182"/>
       <c r="AJ182"/>
       <c r="AK182"/>
+      <c r="AL182" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C183" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D183" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E183" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F183"/>
       <c r="G183" s="1" t="n">
@@ -19922,10 +20471,10 @@
         <v>43791</v>
       </c>
       <c r="I183" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J183" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K183" t="n">
         <v>8</v>
@@ -20000,22 +20549,25 @@
       <c r="AI183"/>
       <c r="AJ183"/>
       <c r="AK183"/>
+      <c r="AL183" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B184" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C184" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E184" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F184"/>
       <c r="G184" s="1" t="n">
@@ -20025,10 +20577,10 @@
         <v>43753</v>
       </c>
       <c r="I184" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J184" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K184"/>
       <c r="L184"/>
@@ -20099,22 +20651,25 @@
       <c r="AI184"/>
       <c r="AJ184"/>
       <c r="AK184"/>
+      <c r="AL184" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B185" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D185" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E185" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F185"/>
       <c r="G185" s="1" t="n">
@@ -20124,10 +20679,10 @@
         <v>43854</v>
       </c>
       <c r="I185" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J185" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K185" t="n">
         <v>0.5</v>
@@ -20202,22 +20757,25 @@
       <c r="AI185"/>
       <c r="AJ185"/>
       <c r="AK185"/>
+      <c r="AL185" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B186" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D186" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E186" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F186"/>
       <c r="G186" s="1" t="n">
@@ -20227,10 +20785,10 @@
         <v>43854</v>
       </c>
       <c r="I186" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J186" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K186"/>
       <c r="L186"/>
@@ -20301,22 +20859,25 @@
       <c r="AI186"/>
       <c r="AJ186"/>
       <c r="AK186"/>
+      <c r="AL186" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B187" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D187" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E187" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F187"/>
       <c r="G187" s="1" t="n">
@@ -20326,10 +20887,10 @@
         <v>43753</v>
       </c>
       <c r="I187" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J187" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K187"/>
       <c r="L187"/>
@@ -20400,22 +20961,25 @@
       <c r="AI187"/>
       <c r="AJ187"/>
       <c r="AK187"/>
+      <c r="AL187" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B188" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C188" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D188" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E188" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F188"/>
       <c r="G188" s="1" t="n">
@@ -20425,10 +20989,10 @@
         <v>43854</v>
       </c>
       <c r="I188" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J188" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K188" t="n">
         <v>2</v>
@@ -20503,22 +21067,25 @@
       <c r="AI188"/>
       <c r="AJ188"/>
       <c r="AK188"/>
+      <c r="AL188" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B189" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C189" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D189" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E189" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F189"/>
       <c r="G189" s="1" t="n">
@@ -20528,10 +21095,10 @@
         <v>43753</v>
       </c>
       <c r="I189" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J189" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K189"/>
       <c r="L189"/>
@@ -20602,22 +21169,25 @@
       <c r="AI189"/>
       <c r="AJ189"/>
       <c r="AK189"/>
+      <c r="AL189" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B190" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C190" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D190" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E190" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F190"/>
       <c r="G190" s="1" t="n">
@@ -20627,10 +21197,10 @@
         <v>43739</v>
       </c>
       <c r="I190" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J190" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K190" t="n">
         <v>550</v>
@@ -20705,22 +21275,25 @@
       <c r="AI190"/>
       <c r="AJ190"/>
       <c r="AK190"/>
+      <c r="AL190" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B191" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C191" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D191" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E191" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F191"/>
       <c r="G191" s="1" t="n">
@@ -20730,10 +21303,10 @@
         <v>43753</v>
       </c>
       <c r="I191" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J191" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K191"/>
       <c r="L191"/>
@@ -20804,22 +21377,25 @@
       <c r="AI191"/>
       <c r="AJ191"/>
       <c r="AK191"/>
+      <c r="AL191" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B192" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D192" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E192" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F192"/>
       <c r="G192" s="1" t="n">
@@ -20829,10 +21405,10 @@
         <v>43753</v>
       </c>
       <c r="I192" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J192" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K192"/>
       <c r="L192"/>
@@ -20903,22 +21479,25 @@
       <c r="AI192"/>
       <c r="AJ192"/>
       <c r="AK192"/>
+      <c r="AL192" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B193" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D193" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E193" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F193"/>
       <c r="G193" s="1" t="n">
@@ -20928,10 +21507,10 @@
         <v>43768</v>
       </c>
       <c r="I193" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J193" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K193"/>
       <c r="L193"/>
@@ -21002,22 +21581,25 @@
       <c r="AI193"/>
       <c r="AJ193"/>
       <c r="AK193"/>
+      <c r="AL193" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B194" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C194" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D194" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E194" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F194"/>
       <c r="G194" s="1" t="n">
@@ -21027,10 +21609,10 @@
         <v>43894</v>
       </c>
       <c r="I194" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J194" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
@@ -21105,22 +21687,25 @@
       <c r="AI194"/>
       <c r="AJ194"/>
       <c r="AK194"/>
+      <c r="AL194" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B195" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C195" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D195" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E195" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F195"/>
       <c r="G195" s="1" t="n">
@@ -21130,10 +21715,10 @@
         <v>43770</v>
       </c>
       <c r="I195" t="s">
+        <v>337</v>
+      </c>
+      <c r="J195" t="s">
         <v>336</v>
-      </c>
-      <c r="J195" t="s">
-        <v>335</v>
       </c>
       <c r="K195" t="n">
         <v>0.5</v>
@@ -21208,22 +21793,25 @@
       <c r="AI195"/>
       <c r="AJ195"/>
       <c r="AK195"/>
+      <c r="AL195" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B196" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C196" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D196" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E196" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F196"/>
       <c r="G196" s="1" t="n">
@@ -21233,10 +21821,10 @@
         <v>43770</v>
       </c>
       <c r="I196" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J196" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K196" t="n">
         <v>0.1</v>
@@ -21311,22 +21899,25 @@
       <c r="AI196"/>
       <c r="AJ196"/>
       <c r="AK196"/>
+      <c r="AL196" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B197" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C197" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D197" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E197" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F197"/>
       <c r="G197" s="1" t="n">
@@ -21336,10 +21927,10 @@
         <v>44155</v>
       </c>
       <c r="I197" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J197" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K197" t="n">
         <v>0.55</v>
@@ -21414,22 +22005,25 @@
       <c r="AI197"/>
       <c r="AJ197"/>
       <c r="AK197"/>
+      <c r="AL197" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B198" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C198" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D198" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E198" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F198"/>
       <c r="G198" s="1" t="n">
@@ -21439,10 +22033,10 @@
         <v>43857</v>
       </c>
       <c r="I198" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J198" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K198" t="n">
         <v>8</v>
@@ -21517,22 +22111,25 @@
       <c r="AI198"/>
       <c r="AJ198"/>
       <c r="AK198"/>
+      <c r="AL198" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B199" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C199" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D199" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E199" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F199"/>
       <c r="G199" s="1" t="n">
@@ -21542,10 +22139,10 @@
         <v>43759</v>
       </c>
       <c r="I199" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J199" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K199" t="n">
         <v>15</v>
@@ -21620,22 +22217,25 @@
       <c r="AI199"/>
       <c r="AJ199"/>
       <c r="AK199"/>
+      <c r="AL199" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B200" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C200" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D200" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E200" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F200"/>
       <c r="G200" s="1" t="n">
@@ -21645,10 +22245,10 @@
         <v>43759</v>
       </c>
       <c r="I200" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J200" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K200" t="n">
         <v>15</v>
@@ -21723,22 +22323,25 @@
       <c r="AI200"/>
       <c r="AJ200"/>
       <c r="AK200"/>
+      <c r="AL200" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B201" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D201" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E201" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F201"/>
       <c r="G201" s="1" t="n">
@@ -21748,10 +22351,10 @@
         <v>43777</v>
       </c>
       <c r="I201" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J201" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K201"/>
       <c r="L201"/>
@@ -21822,22 +22425,25 @@
       <c r="AI201"/>
       <c r="AJ201"/>
       <c r="AK201"/>
+      <c r="AL201" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B202" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C202" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D202" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E202" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F202"/>
       <c r="G202" s="1" t="n">
@@ -21847,10 +22453,10 @@
         <v>43811</v>
       </c>
       <c r="I202" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J202" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K202"/>
       <c r="L202"/>
@@ -21921,22 +22527,25 @@
       <c r="AI202"/>
       <c r="AJ202"/>
       <c r="AK202"/>
+      <c r="AL202" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B203" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C203" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D203" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E203" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F203"/>
       <c r="G203" s="1" t="n">
@@ -21946,10 +22555,10 @@
         <v>43784</v>
       </c>
       <c r="I203" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J203" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -22024,22 +22633,25 @@
       <c r="AI203"/>
       <c r="AJ203"/>
       <c r="AK203"/>
+      <c r="AL203" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B204" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C204" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E204" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F204"/>
       <c r="G204" s="1" t="n">
@@ -22049,10 +22661,10 @@
         <v>43784</v>
       </c>
       <c r="I204" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J204" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K204" t="n">
         <v>0.0375</v>
@@ -22127,22 +22739,25 @@
       <c r="AI204"/>
       <c r="AJ204"/>
       <c r="AK204"/>
+      <c r="AL204" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B205" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C205" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D205" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E205" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F205"/>
       <c r="G205" s="1" t="n">
@@ -22152,10 +22767,10 @@
         <v>43784</v>
       </c>
       <c r="I205" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J205" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K205" t="n">
         <v>0.0678</v>
@@ -22230,22 +22845,25 @@
       <c r="AI205"/>
       <c r="AJ205"/>
       <c r="AK205"/>
+      <c r="AL205" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B206" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C206" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D206" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E206" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F206"/>
       <c r="G206" s="1" t="n">
@@ -22255,10 +22873,10 @@
         <v>43816</v>
       </c>
       <c r="I206" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J206" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K206" t="n">
         <v>0.8</v>
@@ -22333,22 +22951,25 @@
       <c r="AI206"/>
       <c r="AJ206"/>
       <c r="AK206"/>
+      <c r="AL206" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B207" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C207" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D207" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E207" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F207"/>
       <c r="G207" s="1" t="n">
@@ -22358,10 +22979,10 @@
         <v>43811</v>
       </c>
       <c r="I207" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J207" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K207"/>
       <c r="L207"/>
@@ -22432,22 +23053,25 @@
       <c r="AI207"/>
       <c r="AJ207"/>
       <c r="AK207"/>
+      <c r="AL207" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C208" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D208" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E208" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F208"/>
       <c r="G208" s="1" t="n">
@@ -22457,10 +23081,10 @@
         <v>43811</v>
       </c>
       <c r="I208" t="s">
+        <v>350</v>
+      </c>
+      <c r="J208" t="s">
         <v>349</v>
-      </c>
-      <c r="J208" t="s">
-        <v>348</v>
       </c>
       <c r="K208"/>
       <c r="L208"/>
@@ -22531,22 +23155,25 @@
       <c r="AI208"/>
       <c r="AJ208"/>
       <c r="AK208"/>
+      <c r="AL208" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B209" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C209" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D209" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E209" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F209"/>
       <c r="G209" s="1" t="n">
@@ -22556,10 +23183,10 @@
         <v>43861</v>
       </c>
       <c r="I209" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J209" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K209" t="n">
         <v>11.2</v>
@@ -22634,22 +23261,25 @@
       <c r="AI209"/>
       <c r="AJ209"/>
       <c r="AK209"/>
+      <c r="AL209" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B210" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C210" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D210" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E210" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F210"/>
       <c r="G210" s="1" t="n">
@@ -22659,10 +23289,10 @@
         <v>43887</v>
       </c>
       <c r="I210" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J210" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K210"/>
       <c r="L210"/>
@@ -22733,6 +23363,9 @@
       <c r="AI210"/>
       <c r="AJ210"/>
       <c r="AK210"/>
+      <c r="AL210" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/Congo, The Democratic Republic of the_formatted.xlsx
+++ b/output/Congo, The Democratic Republic of the_formatted.xlsx
@@ -4625,7 +4625,7 @@
       <c r="AJ33"/>
       <c r="AK33"/>
       <c r="AL33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" t="n">
         <v>191384</v>
@@ -4730,7 +4730,7 @@
       <c r="AJ34"/>
       <c r="AK34"/>
       <c r="AL34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34" t="n">
         <v>191386</v>
@@ -4835,7 +4835,7 @@
       <c r="AJ35"/>
       <c r="AK35"/>
       <c r="AL35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" t="n">
         <v>191383</v>
@@ -6866,7 +6866,7 @@
       <c r="AJ54"/>
       <c r="AK54"/>
       <c r="AL54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM54" t="n">
         <v>193753</v>
@@ -6971,7 +6971,7 @@
       <c r="AJ55"/>
       <c r="AK55"/>
       <c r="AL55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM55" t="n">
         <v>193754</v>

--- a/output/Congo, The Democratic Republic of the_formatted.xlsx
+++ b/output/Congo, The Democratic Republic of the_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -140,6 +140,12 @@
     <t xml:space="preserve">Flow ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Recipient Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recipient Organisation Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">COD</t>
   </si>
   <si>
@@ -161,30 +167,51 @@
     <t xml:space="preserve">D000396</t>
   </si>
   <si>
+    <t xml:space="preserve">International Federation of Red Cross and Red Crescent Societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Cross/Red Crescent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRC: P006413 - UNICEF Country Level - Ebola Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P006413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Children's Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN agency</t>
+  </si>
+  <si>
     <t xml:space="preserve">In support to 2018 DRC Ebola Emergency</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">DRC: P006413 - UNICEF Country Level - Ebola Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P006413</t>
+    <t xml:space="preserve">World Health Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médecins sans Frontières - Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ebola Outbreak Response in DRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Organization for Migration</t>
   </si>
   <si>
     <t xml:space="preserve">Support to revised IFRC Emergency Appeal for DRC Ebola</t>
   </si>
   <si>
-    <t xml:space="preserve">United States of America, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ebola Outbreak Response in DRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Health Organization</t>
-  </si>
-  <si>
     <t xml:space="preserve">Italy, Government of</t>
   </si>
   <si>
@@ -200,6 +227,9 @@
     <t xml:space="preserve">18-RR-WFP-033</t>
   </si>
   <si>
+    <t xml:space="preserve">World Food Programme</t>
+  </si>
+  <si>
     <t xml:space="preserve">Réponse d’urgence Eau, Hygiène et Assainissement (EHA) pour le contrôle de l’épidémie Ebola dans les zones des santé de Bikoro, Iboko, Ingende et Wangata.</t>
   </si>
   <si>
@@ -230,16 +260,22 @@
     <t xml:space="preserve">To support the Government of the Democratic Republic of the Congo (DRC)’s Ebola Virus Disease Response Plan (EVDRP) to fight the current Ebola outbreak in the country</t>
   </si>
   <si>
+    <t xml:space="preserve">Congo, Democratic Republic of, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNHAS (P006410)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10033389/CAN-C-00564-01/P006410/PO7390832</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Kingdom, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">Support the delivery of a range of WHO activities, including: surveillance, case management, laboratories, coordination, logistics, and operational readiness in neighboring areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNHAS (P006410)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10033389/CAN-C-00564-01/P006410/PO7390832</t>
   </si>
   <si>
     <t xml:space="preserve">GAVI Alliance</t>
@@ -279,9 +315,6 @@
     <t xml:space="preserve">ECHO/DRF/BUD/2018/91006</t>
   </si>
   <si>
-    <t xml:space="preserve">United Nations Children's Fund</t>
-  </si>
-  <si>
     <t xml:space="preserve">UNICEF core resources allocated to the DRC Ebola Outbreak Response</t>
   </si>
   <si>
@@ -312,6 +345,9 @@
     <t xml:space="preserve">6 000 000 SEK goes to; Provide immediate life saving assistance to affected populations in Ituri through Emergency WASH, EFSVL and Protection. Support the rehabilitation, establishment and restoration of essential WASH services in order to address emergency needs, prevent disease outbreaks and establish a platform for long-term and sustainable WASH solutions. Intervene in innovative approaches and cutting-edge technology where necessary to promote sustainable WASH facilities and Public Health Promotion activities related to livelihoods, rehabilitate damaged infrastructures. 1 000 000 SEK goes to; INGO Forum. The effectiveness of humanitarian and development aid in DRC is increased via an improved coordination. Oxfam is promoting a more effective humanitarian and development action through an improved access to information, representation and advocacy of the INGOs.</t>
   </si>
   <si>
+    <t xml:space="preserve">OXFAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Austria, Government of</t>
   </si>
   <si>
@@ -330,6 +366,9 @@
     <t xml:space="preserve">AA-S05 321.50 COD 05/16</t>
   </si>
   <si>
+    <t xml:space="preserve">Malteser International Order of Malta World Relief</t>
+  </si>
+  <si>
     <t xml:space="preserve">Switzerland, Government of</t>
   </si>
   <si>
@@ -339,6 +378,9 @@
     <t xml:space="preserve">7F-10107.01</t>
   </si>
   <si>
+    <t xml:space="preserve">Médecins sans Frontières - Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Denmark, Government of</t>
   </si>
   <si>
@@ -348,6 +390,9 @@
     <t xml:space="preserve">2017-12520</t>
   </si>
   <si>
+    <t xml:space="preserve">Danish Red Cross</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soutien aérien de la riposte Ebola</t>
   </si>
   <si>
@@ -363,6 +408,9 @@
     <t xml:space="preserve">OXFAM ERFS 2018</t>
   </si>
   <si>
+    <t xml:space="preserve">OXFAM Ireland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Réponse rapide à l’épidémie de la maladie à virus Ebola (MVE) dans les provinces du Nord Kivu et de l’Ituri en République Démocratique du Congo.</t>
   </si>
   <si>
@@ -378,19 +426,34 @@
     <t xml:space="preserve">TRO ERFS 2018</t>
   </si>
   <si>
+    <t xml:space="preserve">Trocaire</t>
+  </si>
+  <si>
     <t xml:space="preserve">WOV ERFS 2018</t>
   </si>
   <si>
+    <t xml:space="preserve">World Vision Ireland</t>
+  </si>
+  <si>
     <t xml:space="preserve">DRC/Ebola-2018: Health ( USAID/OFDA)</t>
   </si>
   <si>
+    <t xml:space="preserve">720FDA18CA00053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the Children</t>
+  </si>
+  <si>
     <t xml:space="preserve">720FDA18CA00052</t>
   </si>
   <si>
-    <t xml:space="preserve">720FDA18CA00053</t>
+    <t xml:space="preserve">MEDAIR</t>
   </si>
   <si>
     <t xml:space="preserve">IRC ERFS 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Rescue Committee</t>
   </si>
   <si>
     <t xml:space="preserve">720FDA18CA00054</t>
@@ -436,6 +499,9 @@
     <t xml:space="preserve">Amélioration de la résilience de 4 500 ménages affectés par les conflits interethnique et ceux se trouvant dans les zones de santé affectées par la maladie d’Ebola.</t>
   </si>
   <si>
+    <t xml:space="preserve">Food &amp; Agriculture Organization of the United Nations</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ebola response (QZA-18/0139-5)</t>
   </si>
   <si>
@@ -448,10 +514,16 @@
     <t xml:space="preserve">2018-193</t>
   </si>
   <si>
+    <t xml:space="preserve">French Red Cross</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amélioration de la prise en charge des patients dans les contextes de fièvres hémorragiques virales (FHV) comme la maladie à virus Ebola</t>
   </si>
   <si>
     <t xml:space="preserve">2018-361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance for International Medical Action</t>
   </si>
   <si>
     <t xml:space="preserve">Renforcement de la prévention et du contrôle des infections au sein des centres de santé impactés par la 10ème épidémie Ebola</t>
@@ -470,6 +542,9 @@
     <t xml:space="preserve">Concern ERFS</t>
   </si>
   <si>
+    <t xml:space="preserve">Concern Worldwide</t>
+  </si>
+  <si>
     <t xml:space="preserve">Preventing the spread of ebola outbreak in Eastern DRC.</t>
   </si>
   <si>
@@ -495,6 +570,9 @@
     <t xml:space="preserve">P006746</t>
   </si>
   <si>
+    <t xml:space="preserve">Médecins sans Frontières</t>
+  </si>
+  <si>
     <t xml:space="preserve">Education (Ebola)</t>
   </si>
   <si>
@@ -528,6 +606,9 @@
     <t xml:space="preserve">AA-S9 321.50 COD 03/19</t>
   </si>
   <si>
+    <t xml:space="preserve">Deutsche Welthungerhilfe e.V. (German Agro Action)</t>
+  </si>
+  <si>
     <t xml:space="preserve">720FDA19CA00012</t>
   </si>
   <si>
@@ -538,6 +619,12 @@
   </si>
   <si>
     <t xml:space="preserve">ECHO/COD/BUD/2019/91004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zionist Organization of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZOA</t>
   </si>
   <si>
     <t xml:space="preserve">DRC/Ebola-2018: Health,Protection,Risk Management Policy and Practice
@@ -551,15 +638,18 @@
     <t xml:space="preserve">Responding to the current Ebola Cirus Disease outbreak in DRC</t>
   </si>
   <si>
+    <t xml:space="preserve">Swedish Red Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRC (Ebola): Food Assistance (USAID/FFP) 10035254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10035254	No	72DFFP19IO00015	MOD 15 USA-C-01579-03	CD01.01.011.URT2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Multilateral contribution to IFRC  to provide assistance to affected population (Ebola)</t>
   </si>
   <si>
-    <t xml:space="preserve">DRC (Ebola): Food Assistance (USAID/FFP) 10035254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10035254	No	72DFFP19IO00015	MOD 15 USA-C-01579-03	CD01.01.011.URT2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Health and Medical (Ebola Virus disease outbreak)</t>
   </si>
   <si>
@@ -572,10 +662,13 @@
     <t xml:space="preserve">Trocaire CFP</t>
   </si>
   <si>
+    <t xml:space="preserve">DRC: PEF to 2018 Outbreak Response to Ebola Virus Disease in the DRC (SM180353)</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAID CFP</t>
   </si>
   <si>
-    <t xml:space="preserve">DRC: PEF to 2018 Outbreak Response to Ebola Virus Disease in the DRC (SM180353)</t>
+    <t xml:space="preserve">ACT Alliance / Christian Aid</t>
   </si>
   <si>
     <t xml:space="preserve">Bill and Melinda Gates Foundation</t>
@@ -599,30 +692,33 @@
     <t xml:space="preserve">Measures to contain the Ebola outbreak u.a. increased coordination, early detection of suspected cases, diagnostics and treatment, as well as infection prevention in North Kivu and Ituri (2020 portion)</t>
   </si>
   <si>
+    <t xml:space="preserve">Paul G. Allen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation of Ebola Treatment Centers (ETC) in key outbreak locations of Beni and Katwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A feed-back driven community reporting and monitoring tool across the response effort to enhance community understanding and engagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Localizing Community Feedback Data Systems for Effective Decision-making</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerating Infection Prevention and Control in Priority Health Facilities in Butembo and Katwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design, build and deploy a mobile Emergency Operations Center (EOC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pathfinder International</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emergency Response to the Ebola Outbreak in Eastern DRC (ECHO/COD/BUD/2019/91021)</t>
   </si>
   <si>
     <t xml:space="preserve">ECHO/COD/BUD/2019/91021</t>
   </si>
   <si>
-    <t xml:space="preserve">Paul G. Allen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Localizing Community Feedback Data Systems for Effective Decision-making</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerating Infection Prevention and Control in Priority Health Facilities in Butembo and Katwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A feed-back driven community reporting and monitoring tool across the response effort to enhance community understanding and engagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design, build and deploy a mobile Emergency Operations Center (EOC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation of Ebola Treatment Centers (ETC) in key outbreak locations of Beni and Katwa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ebola, training of volunteers and staff in dignified burials, awareness campaigns and screening of people coming over the borders</t>
   </si>
   <si>
@@ -630,6 +726,9 @@
   </si>
   <si>
     <t xml:space="preserve">ECHO/COD/BUD/2019/91022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercy Corps</t>
   </si>
   <si>
     <t xml:space="preserve">Réponse intégrée en appui psychosocial et nutritionnel pour les enfants et familles, affectés par la Maladie à Virus Ebola, dans les provinces du Nord Kivu et Ituri, RDC (ECHO/COD/BUD/2019/91024)</t>
@@ -686,9 +785,15 @@
     <t xml:space="preserve">720FDA19CA00037</t>
   </si>
   <si>
+    <t xml:space="preserve">UNDP for UNDSS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emergency response to spread of Ebola in Ituri</t>
   </si>
   <si>
+    <t xml:space="preserve">Action Against Hunger</t>
+  </si>
+  <si>
     <t xml:space="preserve">DRC/Ebola-2018: Health (USAID/OFDA)</t>
   </si>
   <si>
@@ -699,6 +804,9 @@
   </si>
   <si>
     <t xml:space="preserve">2017-12483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActionAid International</t>
   </si>
   <si>
     <t xml:space="preserve">IFRC Ebola Emergency Appeal 2019 (7F-10316.01)</t>
@@ -720,6 +828,9 @@
     <t xml:space="preserve">COD-19/0001-1</t>
   </si>
   <si>
+    <t xml:space="preserve">CARE Norway</t>
+  </si>
+  <si>
     <t xml:space="preserve">720FDA19CA00004</t>
   </si>
   <si>
@@ -733,10 +844,13 @@
 .</t>
   </si>
   <si>
+    <t xml:space="preserve">Ebola epidemic - continuation of UNICEF's intervention (that JOA supported earlier this year); focusing on community engagement, WASH and supporting local health services</t>
+  </si>
+  <si>
     <t xml:space="preserve">Containment of the Ebola epidemic; focusing on safe and dignified burials, infection control, psychosocial support and community engagement</t>
   </si>
   <si>
-    <t xml:space="preserve">Ebola epidemic - continuation of UNICEF's intervention (that JOA supported earlier this year); focusing on community engagement, WASH and supporting local health services</t>
+    <t xml:space="preserve">British Red Cross</t>
   </si>
   <si>
     <t xml:space="preserve">Democratic Republic of the Congo Humanitarian Fund</t>
@@ -748,18 +862,18 @@
     <t xml:space="preserve">DRC-19/HCG10/UR2/PROT-WaSH-HLT/INGO/13242</t>
   </si>
   <si>
+    <t xml:space="preserve">Réponse multisectorielle d’urgence en santé et protection dans les zones les plus affectées par l’épidemie MVE dans la province du Nord Kivu. Total: 2,000,000 -  Santé (50%), Protection (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRC-19/HCG10/UR2/HLT-PROT/INGO/13239</t>
+  </si>
+  <si>
     <t xml:space="preserve">Réponse aux besoins prioritaires WASH identifiés dans les zones affectées par l'épidémie de MVE, province du Nord Kivu</t>
   </si>
   <si>
     <t xml:space="preserve">DRC-19/HCG10/UR2/WaSH/INGO/13241</t>
   </si>
   <si>
-    <t xml:space="preserve">Réponse multisectorielle d’urgence en santé et protection dans les zones les plus affectées par l’épidemie MVE dans la province du Nord Kivu. Total: 2,000,000 -  Santé (50%), Protection (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRC-19/HCG10/UR2/HLT-PROT/INGO/13239</t>
-  </si>
-  <si>
     <t xml:space="preserve">Food Assistance (USAID/FFP)</t>
   </si>
   <si>
@@ -782,18 +896,6 @@
   </si>
   <si>
     <t xml:space="preserve">10036277	No	720FDA19IO00084	USA-C-01654-01	CD01.08.051.CPA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réponse multisectorielle d’urgence pour contribuer à l’interruption de la maladie à virus Ebola dans les Provinces du Nord Kivu et de l’Ituri (part of 19-RR-CEF-093)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-RR-CEF-093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réponse à l’épidémie de la maladie à Virus Ebola dans les provinces du Nord-Kivu et de l''Ituri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-RR-IOM-027</t>
   </si>
   <si>
     <t xml:space="preserve">DRC/Ebola-2018:Health,Water, Sanitation and Hygiene,Nutrition
@@ -804,10 +906,25 @@
     <t xml:space="preserve">720FDA19CA00080</t>
   </si>
   <si>
+    <t xml:space="preserve">Réponse multisectorielle d’urgence pour contribuer à l’interruption de la maladie à virus Ebola dans les Provinces du Nord Kivu et de l’Ituri (part of 19-RR-CEF-093)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-RR-CEF-093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réponse à l’épidémie de la maladie à Virus Ebola dans les provinces du Nord-Kivu et de l''Ituri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-RR-IOM-027</t>
+  </si>
+  <si>
     <t xml:space="preserve">DRC (Ebola): Food Security (USAID/FFP)</t>
   </si>
   <si>
     <t xml:space="preserve">72DFFP19GR00072	Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventist Development and Relief Agency</t>
   </si>
   <si>
     <t xml:space="preserve">DRC/Ebola-2018: Logistics Support and Relief Commodities
@@ -815,6 +932,9 @@
   </si>
   <si>
     <t xml:space="preserve">00015MO001024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Humanitarian Response Depot</t>
   </si>
   <si>
     <t xml:space="preserve">Réponse rapide à l’épidémie de la maladie à virus Ebola (MVE) dans les provinces du Nord-Kivu et de l’Ituri de la République Démocratique du Congo</t>
@@ -866,13 +986,16 @@
     <t xml:space="preserve">720FDA19CA00005</t>
   </si>
   <si>
+    <t xml:space="preserve">DRC/Ebola-2018:Program Support (USAID/OFDA)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emergency grant aid in response to the Ebola virus disease outbreak in the eastern part of the Democratic Republic of the Congo</t>
   </si>
   <si>
-    <t xml:space="preserve">DRC/Ebola-2018:Program Support (USAID/OFDA)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ebola response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Committee of the Red Cross</t>
   </si>
   <si>
     <t xml:space="preserve">720FDA20CA00001</t>
@@ -1361,22 +1484,28 @@
       <c r="AP1" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -1386,10 +1515,10 @@
         <v>43245</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
         <v>0.03</v>
@@ -1479,54 +1608,60 @@
       <c r="AP2" t="n">
         <v>174853</v>
       </c>
+      <c r="AQ2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
         <v>43257</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>43259</v>
+        <v>43329</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
       </c>
       <c r="M3" t="n">
-        <v>0.769231</v>
+        <v>0.384615</v>
       </c>
       <c r="N3"/>
       <c r="O3" t="n">
-        <v>0.769231</v>
+        <v>0.384615</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.769231</v>
+        <v>0.384615</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1586,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.769231</v>
+        <v>0.384615</v>
       </c>
       <c r="AL3"/>
       <c r="AM3"/>
@@ -1595,56 +1730,62 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>176015</v>
+        <v>176017</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
         <v>43257</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>43257</v>
+        <v>43259</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K4" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>0.576923</v>
+        <v>0.769231</v>
       </c>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.576923</v>
+        <v>0.769231</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.576923</v>
+        <v>0.769231</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1704,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.576923</v>
+        <v>0.769231</v>
       </c>
       <c r="AL4"/>
       <c r="AM4"/>
@@ -1713,56 +1854,62 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>176016</v>
+        <v>176015</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
         <v>43257</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>43329</v>
+        <v>43257</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="L5" t="n">
         <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>0.384615</v>
+        <v>0.576923</v>
       </c>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>0.384615</v>
+        <v>0.576923</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.384615</v>
+        <v>0.576923</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1822,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.384615</v>
+        <v>0.576923</v>
       </c>
       <c r="AL5"/>
       <c r="AM5"/>
@@ -1831,56 +1978,60 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>176017</v>
+        <v>176016</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
         <v>43242</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>43245</v>
+        <v>43321</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.04</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="K6"/>
       <c r="L6" t="n">
-        <v>1.287</v>
+        <v>10.2916</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03108</v>
+        <v>0.0109</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="n">
-        <v>0.03108</v>
+        <v>0.0109</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03108</v>
+        <v>0.0109</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1940,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.03108</v>
+        <v>0.0109</v>
       </c>
       <c r="AL6"/>
       <c r="AM6"/>
@@ -1949,24 +2100,30 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>175300</v>
+        <v>178916</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
@@ -1976,27 +2133,25 @@
         <v>43321</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K7"/>
-      <c r="L7" t="n">
-        <v>10.2916</v>
-      </c>
+      <c r="L7"/>
       <c r="M7" t="n">
-        <v>0.0109</v>
+        <v>0.880792</v>
       </c>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>0.0109</v>
+        <v>0.880792</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0109</v>
+        <v>0.880792</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -2056,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0109</v>
+        <v>0.880792</v>
       </c>
       <c r="AL7"/>
       <c r="AM7"/>
@@ -2065,52 +2220,62 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>178916</v>
+        <v>178917</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
         <v>43242</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>43321</v>
+        <v>43245</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
       </c>
-      <c r="K8"/>
-      <c r="L8"/>
+      <c r="K8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.287</v>
+      </c>
       <c r="M8" t="n">
-        <v>0.880792</v>
+        <v>0.03108</v>
       </c>
       <c r="N8"/>
       <c r="O8" t="n">
-        <v>0.880792</v>
+        <v>0.03108</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.880792</v>
+        <v>0.03108</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2170,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.880792</v>
+        <v>0.03108</v>
       </c>
       <c r="AL8"/>
       <c r="AM8"/>
@@ -2179,24 +2344,30 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>178917</v>
+        <v>175300</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
@@ -2206,10 +2377,10 @@
         <v>43256</v>
       </c>
       <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
         <v>58</v>
-      </c>
-      <c r="J9" t="s">
-        <v>50</v>
       </c>
       <c r="K9" t="n">
         <v>0.3</v>
@@ -2299,22 +2470,28 @@
       <c r="AP9" t="n">
         <v>175545</v>
       </c>
+      <c r="AQ9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
@@ -2324,10 +2501,10 @@
         <v>43472</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
@@ -2413,22 +2590,28 @@
       <c r="AP10" t="n">
         <v>175271</v>
       </c>
+      <c r="AQ10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
@@ -2438,10 +2621,10 @@
         <v>43256</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
@@ -2527,22 +2710,28 @@
       <c r="AP11" t="n">
         <v>175272</v>
       </c>
+      <c r="AQ11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
@@ -2552,10 +2741,10 @@
         <v>43509</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
@@ -2641,22 +2830,28 @@
       <c r="AP12" t="n">
         <v>175358</v>
       </c>
+      <c r="AQ12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
@@ -2666,10 +2861,10 @@
         <v>43264</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
@@ -2755,22 +2950,28 @@
       <c r="AP13" t="n">
         <v>176353</v>
       </c>
+      <c r="AQ13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
@@ -2780,10 +2981,10 @@
         <v>43416</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
@@ -2869,22 +3070,28 @@
       <c r="AP14" t="n">
         <v>176354</v>
       </c>
+      <c r="AQ14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
@@ -2894,10 +3101,10 @@
         <v>43263</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
@@ -2983,48 +3190,54 @@
       <c r="AP15" t="n">
         <v>176021</v>
       </c>
+      <c r="AQ15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
-        <v>43257</v>
+        <v>43238</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>43263</v>
+        <v>43272</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="L16" t="n">
-        <v>0.752</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>6.648936</v>
+        <v>0.192308</v>
       </c>
       <c r="N16"/>
       <c r="O16" t="n">
-        <v>6.648936</v>
+        <v>0.192308</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -3033,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.648936</v>
+        <v>0.192308</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -3090,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>6.648936</v>
+        <v>0.192308</v>
       </c>
       <c r="AL16"/>
       <c r="AM16"/>
@@ -3099,50 +3312,56 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>176022</v>
+        <v>176006</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1" t="n">
-        <v>43238</v>
+        <v>43257</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>43272</v>
+        <v>43263</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K17" t="n">
-        <v>0.25</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>0.752</v>
       </c>
       <c r="M17" t="n">
-        <v>0.192308</v>
+        <v>6.648936</v>
       </c>
       <c r="N17"/>
       <c r="O17" t="n">
-        <v>0.192308</v>
+        <v>6.648936</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3151,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.192308</v>
+        <v>6.648936</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -3208,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.192308</v>
+        <v>6.648936</v>
       </c>
       <c r="AL17"/>
       <c r="AM17"/>
@@ -3217,24 +3436,30 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>176006</v>
+        <v>176022</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="1" t="n">
@@ -3244,10 +3469,10 @@
         <v>43259</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
@@ -3333,22 +3558,28 @@
       <c r="AP18" t="n">
         <v>176209</v>
       </c>
+      <c r="AQ18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="1" t="n">
@@ -3358,10 +3589,10 @@
         <v>43259</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -3447,22 +3678,28 @@
       <c r="AP19" t="n">
         <v>176212</v>
       </c>
+      <c r="AQ19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="1" t="n">
@@ -3472,10 +3709,10 @@
         <v>43259</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -3561,22 +3798,28 @@
       <c r="AP20" t="n">
         <v>176215</v>
       </c>
+      <c r="AQ20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1" t="n">
@@ -3586,10 +3829,10 @@
         <v>43318</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K21" t="n">
         <v>8</v>
@@ -3679,22 +3922,28 @@
       <c r="AP21" t="n">
         <v>176214</v>
       </c>
+      <c r="AQ21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="n">
@@ -3704,10 +3953,10 @@
         <v>43290</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
@@ -3793,22 +4042,28 @@
       <c r="AP22" t="n">
         <v>176210</v>
       </c>
+      <c r="AQ22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1" t="n">
@@ -3818,10 +4073,10 @@
         <v>43290</v>
       </c>
       <c r="I23" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
@@ -3907,22 +4162,28 @@
       <c r="AP23" t="n">
         <v>176211</v>
       </c>
+      <c r="AQ23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1" t="n">
@@ -3932,10 +4193,10 @@
         <v>43703</v>
       </c>
       <c r="I24" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
@@ -4025,22 +4286,28 @@
       <c r="AP24" t="n">
         <v>184622</v>
       </c>
+      <c r="AQ24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1" t="n">
@@ -4050,10 +4317,10 @@
         <v>43269</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
@@ -4139,22 +4406,28 @@
       <c r="AP25" t="n">
         <v>176547</v>
       </c>
+      <c r="AQ25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1" t="n">
@@ -4164,10 +4437,10 @@
         <v>43460</v>
       </c>
       <c r="I26" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K26" t="n">
         <v>0.6</v>
@@ -4257,22 +4530,28 @@
       <c r="AP26" t="n">
         <v>177066</v>
       </c>
+      <c r="AQ26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1" t="n">
@@ -4282,10 +4561,10 @@
         <v>43329</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="J27" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
@@ -4371,22 +4650,28 @@
       <c r="AP27" t="n">
         <v>179290</v>
       </c>
+      <c r="AQ27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1" t="n">
@@ -4396,10 +4681,10 @@
         <v>43460</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="K28" t="n">
         <v>0.5</v>
@@ -4489,22 +4774,28 @@
       <c r="AP28" t="n">
         <v>177336</v>
       </c>
+      <c r="AQ28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1" t="n">
@@ -4514,10 +4805,10 @@
         <v>43376</v>
       </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K29" t="n">
         <v>7</v>
@@ -4607,22 +4898,28 @@
       <c r="AP29" t="n">
         <v>180938</v>
       </c>
+      <c r="AQ29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1" t="n">
@@ -4632,10 +4929,10 @@
         <v>43321</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K30"/>
       <c r="L30"/>
@@ -4721,22 +5018,28 @@
       <c r="AP30" t="n">
         <v>178914</v>
       </c>
+      <c r="AQ30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1" t="n">
@@ -4746,10 +5049,10 @@
         <v>43290</v>
       </c>
       <c r="I31" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J31" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="K31" t="n">
         <v>0.1</v>
@@ -4839,22 +5142,28 @@
       <c r="AP31" t="n">
         <v>177620</v>
       </c>
+      <c r="AQ31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1" t="n">
@@ -4864,10 +5173,10 @@
         <v>43423</v>
       </c>
       <c r="I32" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="J32" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="K32" t="n">
         <v>1.46</v>
@@ -4957,22 +5266,28 @@
       <c r="AP32" t="n">
         <v>140729</v>
       </c>
+      <c r="AQ32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1" t="n">
@@ -4982,10 +5297,10 @@
         <v>43319</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="J33" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K33" t="n">
         <v>0.35</v>
@@ -5075,22 +5390,28 @@
       <c r="AP33" t="n">
         <v>178872</v>
       </c>
+      <c r="AQ33" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1" t="n">
@@ -5100,10 +5421,10 @@
         <v>43332</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="J34" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="K34" t="n">
         <v>0.33</v>
@@ -5193,22 +5514,28 @@
       <c r="AP34" t="n">
         <v>179322</v>
       </c>
+      <c r="AQ34" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1" t="n">
@@ -5218,10 +5545,10 @@
         <v>43370</v>
       </c>
       <c r="I35" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="J35" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K35"/>
       <c r="L35"/>
@@ -5307,22 +5634,28 @@
       <c r="AP35" t="n">
         <v>179022</v>
       </c>
+      <c r="AQ35" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1" t="n">
@@ -5332,10 +5665,10 @@
         <v>43341</v>
       </c>
       <c r="I36" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="J36" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K36" t="n">
         <v>0.1</v>
@@ -5425,22 +5758,28 @@
       <c r="AP36" t="n">
         <v>179758</v>
       </c>
+      <c r="AQ36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1" t="n">
@@ -5450,10 +5789,10 @@
         <v>43474</v>
       </c>
       <c r="I37" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
@@ -5539,22 +5878,28 @@
       <c r="AP37" t="n">
         <v>179377</v>
       </c>
+      <c r="AQ37" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="1" t="n">
@@ -5564,10 +5909,10 @@
         <v>43370</v>
       </c>
       <c r="I38" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="J38" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
@@ -5653,22 +5998,28 @@
       <c r="AP38" t="n">
         <v>179507</v>
       </c>
+      <c r="AQ38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="1" t="n">
@@ -5678,10 +6029,10 @@
         <v>43361</v>
       </c>
       <c r="I39" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="J39" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="K39" t="n">
         <v>0.15</v>
@@ -5771,22 +6122,28 @@
       <c r="AP39" t="n">
         <v>180298</v>
       </c>
+      <c r="AQ39" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="1" t="n">
@@ -5796,10 +6153,10 @@
         <v>43361</v>
       </c>
       <c r="I40" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="J40" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="K40" t="n">
         <v>0.14</v>
@@ -5889,22 +6246,28 @@
       <c r="AP40" t="n">
         <v>180299</v>
       </c>
+      <c r="AQ40" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="1" t="n">
@@ -5914,19 +6277,19 @@
         <v>43409</v>
       </c>
       <c r="I41" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J41" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41" t="n">
-        <v>0.949957</v>
+        <v>1</v>
       </c>
       <c r="N41"/>
       <c r="O41" t="n">
-        <v>0.949957</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -5944,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.949957</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -5992,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.949957</v>
+        <v>1</v>
       </c>
       <c r="AL41"/>
       <c r="AM41"/>
@@ -6001,24 +6364,30 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>182861</v>
+        <v>182863</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="1" t="n">
@@ -6028,19 +6397,19 @@
         <v>43409</v>
       </c>
       <c r="I42" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J42" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0.949957</v>
       </c>
       <c r="N42"/>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0.949957</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -6058,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>0.949957</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -6106,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>1</v>
+        <v>0.949957</v>
       </c>
       <c r="AL42"/>
       <c r="AM42"/>
@@ -6115,24 +6484,30 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>182863</v>
+        <v>182861</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="1" t="n">
@@ -6142,10 +6517,10 @@
         <v>43381</v>
       </c>
       <c r="I43" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="J43" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="K43" t="n">
         <v>0.047766</v>
@@ -6235,22 +6610,28 @@
       <c r="AP43" t="n">
         <v>180991</v>
       </c>
+      <c r="AQ43" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F44"/>
       <c r="G44" s="1" t="n">
@@ -6260,10 +6641,10 @@
         <v>43409</v>
       </c>
       <c r="I44" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J44" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
@@ -6349,22 +6730,28 @@
       <c r="AP44" t="n">
         <v>182860</v>
       </c>
+      <c r="AQ44" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F45"/>
       <c r="G45" s="1" t="n">
@@ -6374,10 +6761,10 @@
         <v>43721</v>
       </c>
       <c r="I45" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="J45" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
@@ -6463,22 +6850,28 @@
       <c r="AP45" t="n">
         <v>182564</v>
       </c>
+      <c r="AQ45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F46"/>
       <c r="G46" s="1" t="n">
@@ -6488,10 +6881,10 @@
         <v>43413</v>
       </c>
       <c r="I46" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="J46" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="K46" t="n">
         <v>0.375</v>
@@ -6581,22 +6974,28 @@
       <c r="AP46" t="n">
         <v>183365</v>
       </c>
+      <c r="AQ46" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="1" t="n">
@@ -6606,10 +7005,10 @@
         <v>43427</v>
       </c>
       <c r="I47" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="J47" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K47" t="n">
         <v>5.5</v>
@@ -6699,22 +7098,28 @@
       <c r="AP47" t="n">
         <v>184371</v>
       </c>
+      <c r="AQ47" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F48"/>
       <c r="G48" s="1" t="n">
@@ -6724,10 +7129,10 @@
         <v>43698</v>
       </c>
       <c r="I48" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="J48" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="K48"/>
       <c r="L48"/>
@@ -6813,22 +7218,26 @@
       <c r="AP48" t="n">
         <v>197079</v>
       </c>
+      <c r="AQ48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F49"/>
       <c r="G49" s="1" t="n">
@@ -6838,10 +7247,10 @@
         <v>43458</v>
       </c>
       <c r="I49" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
@@ -6927,22 +7336,26 @@
       <c r="AP49" t="n">
         <v>182865</v>
       </c>
+      <c r="AQ49" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="1" t="n">
@@ -6952,10 +7365,10 @@
         <v>43460</v>
       </c>
       <c r="I50" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="J50" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="K50" t="n">
         <v>1.2</v>
@@ -7045,22 +7458,28 @@
       <c r="AP50" t="n">
         <v>184048</v>
       </c>
+      <c r="AQ50" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="1" t="n">
@@ -7070,10 +7489,10 @@
         <v>43460</v>
       </c>
       <c r="I51" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="J51" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K51" t="n">
         <v>2</v>
@@ -7163,22 +7582,28 @@
       <c r="AP51" t="n">
         <v>185013</v>
       </c>
+      <c r="AQ51" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="1" t="n">
@@ -7188,10 +7613,10 @@
         <v>43573</v>
       </c>
       <c r="I52" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K52" t="n">
         <v>0.5</v>
@@ -7281,22 +7706,28 @@
       <c r="AP52" t="n">
         <v>190270</v>
       </c>
+      <c r="AQ52" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="1" t="n">
@@ -7306,10 +7737,10 @@
         <v>43573</v>
       </c>
       <c r="I53" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K53" t="n">
         <v>10</v>
@@ -7399,22 +7830,28 @@
       <c r="AP53" t="n">
         <v>190265</v>
       </c>
+      <c r="AQ53" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="1" t="n">
@@ -7424,10 +7861,10 @@
         <v>43480</v>
       </c>
       <c r="I54" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="J54" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="K54" t="n">
         <v>0.15</v>
@@ -7517,22 +7954,28 @@
       <c r="AP54" t="n">
         <v>186345</v>
       </c>
+      <c r="AQ54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="1" t="n">
@@ -7542,10 +7985,10 @@
         <v>43481</v>
       </c>
       <c r="I55" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="J55" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="K55" t="n">
         <v>0.05</v>
@@ -7635,22 +8078,28 @@
       <c r="AP55" t="n">
         <v>186369</v>
       </c>
+      <c r="AQ55" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="F56"/>
       <c r="G56" s="1" t="n">
@@ -7660,10 +8109,10 @@
         <v>43495</v>
       </c>
       <c r="I56" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="J56" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="K56" t="n">
         <v>0.3</v>
@@ -7753,22 +8202,28 @@
       <c r="AP56" t="n">
         <v>186315</v>
       </c>
+      <c r="AQ56" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="1" t="n">
@@ -7778,10 +8233,10 @@
         <v>43697</v>
       </c>
       <c r="I57" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="J57" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="K57"/>
       <c r="L57"/>
@@ -7867,22 +8322,26 @@
       <c r="AP57" t="n">
         <v>197060</v>
       </c>
+      <c r="AQ57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="1" t="n">
@@ -7892,10 +8351,10 @@
         <v>43770</v>
       </c>
       <c r="I58" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="J58" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="K58" t="n">
         <v>0.1</v>
@@ -7985,22 +8444,28 @@
       <c r="AP58" t="n">
         <v>190425</v>
       </c>
+      <c r="AQ58" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F59"/>
       <c r="G59" s="1" t="n">
@@ -8010,10 +8475,10 @@
         <v>43770</v>
       </c>
       <c r="I59" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K59" t="n">
         <v>5.396294</v>
@@ -8103,22 +8568,28 @@
       <c r="AP59" t="n">
         <v>188186</v>
       </c>
+      <c r="AQ59" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F60"/>
       <c r="G60" s="1" t="n">
@@ -8128,10 +8599,10 @@
         <v>43697</v>
       </c>
       <c r="I60" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="J60" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="K60"/>
       <c r="L60"/>
@@ -8217,22 +8688,26 @@
       <c r="AP60" t="n">
         <v>197067</v>
       </c>
+      <c r="AQ60" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="1" t="n">
@@ -8242,10 +8717,10 @@
         <v>43881</v>
       </c>
       <c r="I61" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K61" t="n">
         <v>0.1</v>
@@ -8335,22 +8810,28 @@
       <c r="AP61" t="n">
         <v>205345</v>
       </c>
+      <c r="AQ61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="n">
@@ -8360,10 +8841,10 @@
         <v>43697</v>
       </c>
       <c r="I62" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="J62" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K62"/>
       <c r="L62"/>
@@ -8449,22 +8930,26 @@
       <c r="AP62" t="n">
         <v>197066</v>
       </c>
+      <c r="AQ62" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="n">
@@ -8474,10 +8959,10 @@
         <v>43697</v>
       </c>
       <c r="I63" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="J63" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="K63"/>
       <c r="L63"/>
@@ -8563,22 +9048,26 @@
       <c r="AP63" t="n">
         <v>197068</v>
       </c>
+      <c r="AQ63" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="1" t="n">
@@ -8588,10 +9077,10 @@
         <v>43783</v>
       </c>
       <c r="I64" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="J64" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="K64" t="n">
         <v>1.75</v>
@@ -8681,22 +9170,28 @@
       <c r="AP64" t="n">
         <v>201451</v>
       </c>
+      <c r="AQ64" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F65"/>
       <c r="G65" s="1" t="n">
@@ -8706,10 +9201,10 @@
         <v>43770</v>
       </c>
       <c r="I65" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="J65" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="K65"/>
       <c r="L65"/>
@@ -8795,22 +9290,28 @@
       <c r="AP65" t="n">
         <v>191384</v>
       </c>
+      <c r="AQ65" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F66"/>
       <c r="G66" s="1" t="n">
@@ -8820,10 +9321,10 @@
         <v>43770</v>
       </c>
       <c r="I66" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="J66" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="K66"/>
       <c r="L66"/>
@@ -8909,22 +9410,28 @@
       <c r="AP66" t="n">
         <v>191386</v>
       </c>
+      <c r="AQ66" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F67"/>
       <c r="G67" s="1" t="n">
@@ -8934,10 +9441,10 @@
         <v>43770</v>
       </c>
       <c r="I67" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="J67" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="K67"/>
       <c r="L67"/>
@@ -9023,22 +9530,28 @@
       <c r="AP67" t="n">
         <v>191383</v>
       </c>
+      <c r="AQ67" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR67" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F68"/>
       <c r="G68" s="1" t="n">
@@ -9048,10 +9561,10 @@
         <v>43770</v>
       </c>
       <c r="I68" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="J68" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="K68"/>
       <c r="L68"/>
@@ -9137,22 +9650,28 @@
       <c r="AP68" t="n">
         <v>191390</v>
       </c>
+      <c r="AQ68" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F69"/>
       <c r="G69" s="1" t="n">
@@ -9162,10 +9681,10 @@
         <v>43770</v>
       </c>
       <c r="I69" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="J69" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="K69"/>
       <c r="L69"/>
@@ -9251,22 +9770,28 @@
       <c r="AP69" t="n">
         <v>191391</v>
       </c>
+      <c r="AQ69" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F70"/>
       <c r="G70" s="1" t="n">
@@ -9276,10 +9801,10 @@
         <v>43770</v>
       </c>
       <c r="I70" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="J70" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="K70"/>
       <c r="L70"/>
@@ -9365,22 +9890,28 @@
       <c r="AP70" t="n">
         <v>191392</v>
       </c>
+      <c r="AQ70" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E71" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F71"/>
       <c r="G71" s="1" t="n">
@@ -9390,10 +9921,10 @@
         <v>43770</v>
       </c>
       <c r="I71" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="J71" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="K71"/>
       <c r="L71"/>
@@ -9479,22 +10010,28 @@
       <c r="AP71" t="n">
         <v>191393</v>
       </c>
+      <c r="AQ71" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F72"/>
       <c r="G72" s="1" t="n">
@@ -9504,10 +10041,10 @@
         <v>43697</v>
       </c>
       <c r="I72" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="J72" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="K72"/>
       <c r="L72"/>
@@ -9593,22 +10130,28 @@
       <c r="AP72" t="n">
         <v>196201</v>
       </c>
+      <c r="AQ72" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E73" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F73"/>
       <c r="G73" s="1" t="n">
@@ -9618,10 +10161,10 @@
         <v>43714</v>
       </c>
       <c r="I73" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="J73" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="K73" t="n">
         <v>0.75</v>
@@ -9711,22 +10254,28 @@
       <c r="AP73" t="n">
         <v>191954</v>
       </c>
+      <c r="AQ73" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E74" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F74"/>
       <c r="G74" s="1" t="n">
@@ -9736,10 +10285,10 @@
         <v>43697</v>
       </c>
       <c r="I74" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="J74" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="K74"/>
       <c r="L74"/>
@@ -9825,22 +10374,26 @@
       <c r="AP74" t="n">
         <v>197061</v>
       </c>
+      <c r="AQ74" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E75" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F75"/>
       <c r="G75" s="1" t="n">
@@ -9850,10 +10403,10 @@
         <v>43697</v>
       </c>
       <c r="I75" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="J75" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="K75"/>
       <c r="L75"/>
@@ -9939,48 +10492,52 @@
       <c r="AP75" t="n">
         <v>197072</v>
       </c>
+      <c r="AQ75" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E76" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F76"/>
       <c r="G76" s="1" t="n">
         <v>43580</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>44032</v>
+        <v>44145</v>
       </c>
       <c r="I76" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="J76" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="K76" t="n">
-        <v>4.4</v>
+        <v>0.22</v>
       </c>
       <c r="L76" t="n">
         <v>0.891</v>
       </c>
       <c r="M76" t="n">
-        <v>4.938272</v>
+        <v>0.246914</v>
       </c>
       <c r="N76"/>
       <c r="O76" t="n">
-        <v>4.938272</v>
+        <v>0.246914</v>
       </c>
       <c r="P76" t="n">
         <v>1</v>
@@ -10019,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="AB76" t="n">
-        <v>4.938272</v>
+        <v>0.246914</v>
       </c>
       <c r="AC76" t="n">
         <v>0</v>
@@ -10046,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="AK76" t="n">
-        <v>4.938272</v>
+        <v>0.246914</v>
       </c>
       <c r="AL76"/>
       <c r="AM76"/>
@@ -10055,50 +10612,56 @@
         <v>0</v>
       </c>
       <c r="AP76" t="n">
-        <v>190591</v>
+        <v>214745</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E77" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F77"/>
       <c r="G77" s="1" t="n">
         <v>43580</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>44145</v>
+        <v>44032</v>
       </c>
       <c r="I77" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="J77" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="K77" t="n">
-        <v>0.03</v>
+        <v>4.4</v>
       </c>
       <c r="L77" t="n">
         <v>0.891</v>
       </c>
       <c r="M77" t="n">
-        <v>0.03367</v>
+        <v>4.938272</v>
       </c>
       <c r="N77"/>
       <c r="O77" t="n">
-        <v>0.03367</v>
+        <v>4.938272</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -10137,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.03367</v>
+        <v>4.938272</v>
       </c>
       <c r="AC77" t="n">
         <v>0</v>
@@ -10164,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="AK77" t="n">
-        <v>0.03367</v>
+        <v>4.938272</v>
       </c>
       <c r="AL77"/>
       <c r="AM77"/>
@@ -10173,24 +10736,30 @@
         <v>0</v>
       </c>
       <c r="AP77" t="n">
-        <v>203065</v>
+        <v>190591</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E78" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F78"/>
       <c r="G78" s="1" t="n">
@@ -10200,23 +10769,23 @@
         <v>44145</v>
       </c>
       <c r="I78" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="J78" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="K78" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="L78" t="n">
         <v>0.891</v>
       </c>
       <c r="M78" t="n">
-        <v>0.246914</v>
+        <v>0.03367</v>
       </c>
       <c r="N78"/>
       <c r="O78" t="n">
-        <v>0.246914</v>
+        <v>0.03367</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -10255,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.246914</v>
+        <v>0.03367</v>
       </c>
       <c r="AC78" t="n">
         <v>0</v>
@@ -10282,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="AK78" t="n">
-        <v>0.246914</v>
+        <v>0.03367</v>
       </c>
       <c r="AL78"/>
       <c r="AM78"/>
@@ -10291,24 +10860,30 @@
         <v>0</v>
       </c>
       <c r="AP78" t="n">
-        <v>214745</v>
+        <v>203065</v>
+      </c>
+      <c r="AQ78" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E79" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F79"/>
       <c r="G79" s="1" t="n">
@@ -10318,10 +10893,10 @@
         <v>43697</v>
       </c>
       <c r="I79" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="J79" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="K79"/>
       <c r="L79"/>
@@ -10407,22 +10982,26 @@
       <c r="AP79" t="n">
         <v>197071</v>
       </c>
+      <c r="AQ79" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C80" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F80"/>
       <c r="G80" s="1" t="n">
@@ -10432,10 +11011,10 @@
         <v>43629</v>
       </c>
       <c r="I80" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="J80" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K80" t="n">
         <v>5</v>
@@ -10525,48 +11104,50 @@
       <c r="AP80" t="n">
         <v>193220</v>
       </c>
+      <c r="AQ80" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR80" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C81" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F81"/>
       <c r="G81" s="1" t="n">
         <v>43601</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>43633</v>
+        <v>43770</v>
       </c>
       <c r="I81" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.897</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="K81"/>
+      <c r="L81"/>
       <c r="M81" t="n">
-        <v>0.557414</v>
+        <v>7</v>
       </c>
       <c r="N81"/>
       <c r="O81" t="n">
-        <v>0.557414</v>
+        <v>7</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -10608,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="AC81" t="n">
-        <v>0.557414</v>
+        <v>7</v>
       </c>
       <c r="AD81" t="n">
         <v>0</v>
@@ -10632,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="AK81" t="n">
-        <v>0.557414</v>
+        <v>7</v>
       </c>
       <c r="AL81"/>
       <c r="AM81"/>
@@ -10641,46 +11222,56 @@
         <v>0</v>
       </c>
       <c r="AP81" t="n">
-        <v>193029</v>
+        <v>194471</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR81" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E82" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F82"/>
       <c r="G82" s="1" t="n">
         <v>43601</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>43770</v>
+        <v>43633</v>
       </c>
       <c r="I82" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="J82" t="s">
-        <v>179</v>
-      </c>
-      <c r="K82"/>
-      <c r="L82"/>
+        <v>58</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.897</v>
+      </c>
       <c r="M82" t="n">
-        <v>7</v>
+        <v>0.557414</v>
       </c>
       <c r="N82"/>
       <c r="O82" t="n">
-        <v>7</v>
+        <v>0.557414</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -10722,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="AC82" t="n">
-        <v>7</v>
+        <v>0.557414</v>
       </c>
       <c r="AD82" t="n">
         <v>0</v>
@@ -10746,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="AK82" t="n">
-        <v>7</v>
+        <v>0.557414</v>
       </c>
       <c r="AL82"/>
       <c r="AM82"/>
@@ -10755,24 +11346,30 @@
         <v>0</v>
       </c>
       <c r="AP82" t="n">
-        <v>194471</v>
+        <v>193029</v>
+      </c>
+      <c r="AQ82" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR82" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C83" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E83" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F83"/>
       <c r="G83" s="1" t="n">
@@ -10782,10 +11379,10 @@
         <v>43770</v>
       </c>
       <c r="I83" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="J83" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="K83" t="n">
         <v>0.366436</v>
@@ -10875,22 +11472,28 @@
       <c r="AP83" t="n">
         <v>192368</v>
       </c>
+      <c r="AQ83" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR83" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E84" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F84"/>
       <c r="G84" s="1" t="n">
@@ -10900,10 +11503,10 @@
         <v>43770</v>
       </c>
       <c r="I84" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="J84" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="K84" t="n">
         <v>0.348558</v>
@@ -10993,22 +11596,28 @@
       <c r="AP84" t="n">
         <v>192369</v>
       </c>
+      <c r="AQ84" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR84" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E85" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F85"/>
       <c r="G85" s="1" t="n">
@@ -11018,23 +11627,19 @@
         <v>43770</v>
       </c>
       <c r="I85" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="J85" t="s">
-        <v>184</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.285006</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.897</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="K85"/>
+      <c r="L85"/>
       <c r="M85" t="n">
-        <v>0.317732</v>
+        <v>9.259259</v>
       </c>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>0.317732</v>
+        <v>9.259259</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
@@ -11076,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.317732</v>
+        <v>9.259259</v>
       </c>
       <c r="AD85" t="n">
         <v>0</v>
@@ -11100,33 +11705,39 @@
         <v>0</v>
       </c>
       <c r="AK85" t="n">
-        <v>0.317732</v>
+        <v>9.259259</v>
       </c>
       <c r="AL85"/>
       <c r="AM85"/>
       <c r="AN85"/>
       <c r="AO85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP85" t="n">
-        <v>192370</v>
+        <v>193753</v>
+      </c>
+      <c r="AQ85" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR85" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C86" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E86" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F86"/>
       <c r="G86" s="1" t="n">
@@ -11136,19 +11747,19 @@
         <v>43770</v>
       </c>
       <c r="I86" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="J86" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="K86"/>
       <c r="L86"/>
       <c r="M86" t="n">
-        <v>9.259259</v>
+        <v>0.740741</v>
       </c>
       <c r="N86"/>
       <c r="O86" t="n">
-        <v>9.259259</v>
+        <v>0.740741</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -11190,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="AC86" t="n">
-        <v>9.259259</v>
+        <v>0.740741</v>
       </c>
       <c r="AD86" t="n">
         <v>0</v>
@@ -11214,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="AK86" t="n">
-        <v>9.259259</v>
+        <v>0.740741</v>
       </c>
       <c r="AL86"/>
       <c r="AM86"/>
@@ -11223,24 +11834,30 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>193753</v>
+        <v>193754</v>
+      </c>
+      <c r="AQ86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR86" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C87" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E87" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="F87"/>
       <c r="G87" s="1" t="n">
@@ -11250,19 +11867,23 @@
         <v>43770</v>
       </c>
       <c r="I87" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="J87" t="s">
-        <v>160</v>
-      </c>
-      <c r="K87"/>
-      <c r="L87"/>
+        <v>215</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.285006</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.897</v>
+      </c>
       <c r="M87" t="n">
-        <v>0.740741</v>
+        <v>0.317732</v>
       </c>
       <c r="N87"/>
       <c r="O87" t="n">
-        <v>0.740741</v>
+        <v>0.317732</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -11304,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="AC87" t="n">
-        <v>0.740741</v>
+        <v>0.317732</v>
       </c>
       <c r="AD87" t="n">
         <v>0</v>
@@ -11328,33 +11949,39 @@
         <v>0</v>
       </c>
       <c r="AK87" t="n">
-        <v>0.740741</v>
+        <v>0.317732</v>
       </c>
       <c r="AL87"/>
       <c r="AM87"/>
       <c r="AN87"/>
       <c r="AO87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP87" t="n">
-        <v>193754</v>
+        <v>192370</v>
+      </c>
+      <c r="AQ87" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR87" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C88" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E88" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="F88"/>
       <c r="G88" s="1" t="n">
@@ -11364,10 +11991,10 @@
         <v>43770</v>
       </c>
       <c r="I88" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K88"/>
       <c r="L88"/>
@@ -11453,22 +12080,28 @@
       <c r="AP88" t="n">
         <v>195035</v>
       </c>
+      <c r="AQ88" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR88" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E89" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F89"/>
       <c r="G89" s="1" t="n">
@@ -11478,10 +12111,10 @@
         <v>43818</v>
       </c>
       <c r="I89" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="J89" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="K89" t="n">
         <v>0.8</v>
@@ -11571,22 +12204,28 @@
       <c r="AP89" t="n">
         <v>193388</v>
       </c>
+      <c r="AQ89" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR89" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E90" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F90"/>
       <c r="G90" s="1" t="n">
@@ -11596,10 +12235,10 @@
         <v>44034</v>
       </c>
       <c r="I90" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="J90" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="K90" t="n">
         <v>7</v>
@@ -11689,22 +12328,28 @@
       <c r="AP90" t="n">
         <v>201594</v>
       </c>
+      <c r="AQ90" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR90" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C91" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E91" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F91"/>
       <c r="G91" s="1" t="n">
@@ -11714,10 +12359,10 @@
         <v>44034</v>
       </c>
       <c r="I91" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="J91" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -11807,22 +12452,28 @@
       <c r="AP91" t="n">
         <v>193005</v>
       </c>
+      <c r="AQ91" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR91" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C92" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D92" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E92" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="1" t="n">
@@ -11832,10 +12483,10 @@
         <v>44034</v>
       </c>
       <c r="I92" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="J92" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -11925,48 +12576,50 @@
       <c r="AP92" t="n">
         <v>201595</v>
       </c>
+      <c r="AQ92" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR92" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C93" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E93" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="1" t="n">
-        <v>43627</v>
+        <v>43448</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>43816</v>
+        <v>43887</v>
       </c>
       <c r="I93" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="J93" t="s">
-        <v>194</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.899</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="K93"/>
+      <c r="L93"/>
       <c r="M93" t="n">
-        <v>0.873192</v>
+        <v>1.25</v>
       </c>
       <c r="N93"/>
       <c r="O93" t="n">
-        <v>0.873192</v>
+        <v>1.25</v>
       </c>
       <c r="P93" t="n">
         <v>1</v>
@@ -12011,7 +12664,7 @@
         <v>0</v>
       </c>
       <c r="AD93" t="n">
-        <v>0.873192</v>
+        <v>1.25</v>
       </c>
       <c r="AE93" t="n">
         <v>0</v>
@@ -12032,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="AK93" t="n">
-        <v>0.873192</v>
+        <v>1.25</v>
       </c>
       <c r="AL93"/>
       <c r="AM93"/>
@@ -12041,24 +12694,30 @@
         <v>0</v>
       </c>
       <c r="AP93" t="n">
-        <v>193291</v>
+        <v>205657</v>
+      </c>
+      <c r="AQ93" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR93" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C94" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E94" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="1" t="n">
@@ -12068,19 +12727,19 @@
         <v>43887</v>
       </c>
       <c r="I94" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K94"/>
       <c r="L94"/>
       <c r="M94" t="n">
-        <v>0.96</v>
+        <v>0.709268</v>
       </c>
       <c r="N94"/>
       <c r="O94" t="n">
-        <v>0.96</v>
+        <v>0.709268</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -12125,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="AD94" t="n">
-        <v>0.96</v>
+        <v>0.709268</v>
       </c>
       <c r="AE94" t="n">
         <v>0</v>
@@ -12146,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="AK94" t="n">
-        <v>0.96</v>
+        <v>0.709268</v>
       </c>
       <c r="AL94"/>
       <c r="AM94"/>
@@ -12155,24 +12814,30 @@
         <v>0</v>
       </c>
       <c r="AP94" t="n">
-        <v>205653</v>
+        <v>205655</v>
+      </c>
+      <c r="AQ94" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR94" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C95" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E95" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="1" t="n">
@@ -12182,19 +12847,19 @@
         <v>43887</v>
       </c>
       <c r="I95" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95" t="n">
-        <v>0.721726</v>
+        <v>0.96</v>
       </c>
       <c r="N95"/>
       <c r="O95" t="n">
-        <v>0.721726</v>
+        <v>0.96</v>
       </c>
       <c r="P95" t="n">
         <v>1</v>
@@ -12239,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="AD95" t="n">
-        <v>0.721726</v>
+        <v>0.96</v>
       </c>
       <c r="AE95" t="n">
         <v>0</v>
@@ -12260,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="AK95" t="n">
-        <v>0.721726</v>
+        <v>0.96</v>
       </c>
       <c r="AL95"/>
       <c r="AM95"/>
@@ -12269,24 +12934,30 @@
         <v>0</v>
       </c>
       <c r="AP95" t="n">
-        <v>205654</v>
+        <v>205653</v>
+      </c>
+      <c r="AQ95" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR95" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C96" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E96" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="1" t="n">
@@ -12296,19 +12967,19 @@
         <v>43887</v>
       </c>
       <c r="I96" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="J96" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K96"/>
       <c r="L96"/>
       <c r="M96" t="n">
-        <v>0.709268</v>
+        <v>0.721726</v>
       </c>
       <c r="N96"/>
       <c r="O96" t="n">
-        <v>0.709268</v>
+        <v>0.721726</v>
       </c>
       <c r="P96" t="n">
         <v>1</v>
@@ -12353,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="AD96" t="n">
-        <v>0.709268</v>
+        <v>0.721726</v>
       </c>
       <c r="AE96" t="n">
         <v>0</v>
@@ -12374,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="AK96" t="n">
-        <v>0.709268</v>
+        <v>0.721726</v>
       </c>
       <c r="AL96"/>
       <c r="AM96"/>
@@ -12383,24 +13054,30 @@
         <v>0</v>
       </c>
       <c r="AP96" t="n">
-        <v>205655</v>
+        <v>205654</v>
+      </c>
+      <c r="AQ96" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR96" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C97" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E97" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="1" t="n">
@@ -12410,10 +13087,10 @@
         <v>43887</v>
       </c>
       <c r="I97" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K97"/>
       <c r="L97"/>
@@ -12499,44 +13176,54 @@
       <c r="AP97" t="n">
         <v>205656</v>
       </c>
+      <c r="AQ97" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR97" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C98" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D98" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="1" t="n">
-        <v>43448</v>
+        <v>43627</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>43887</v>
+        <v>43816</v>
       </c>
       <c r="I98" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
-      </c>
-      <c r="K98"/>
-      <c r="L98"/>
+        <v>232</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.899</v>
+      </c>
       <c r="M98" t="n">
-        <v>1.25</v>
+        <v>0.873192</v>
       </c>
       <c r="N98"/>
       <c r="O98" t="n">
-        <v>1.25</v>
+        <v>0.873192</v>
       </c>
       <c r="P98" t="n">
         <v>1</v>
@@ -12581,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="AD98" t="n">
-        <v>1.25</v>
+        <v>0.873192</v>
       </c>
       <c r="AE98" t="n">
         <v>0</v>
@@ -12602,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="AK98" t="n">
-        <v>1.25</v>
+        <v>0.873192</v>
       </c>
       <c r="AL98"/>
       <c r="AM98"/>
@@ -12611,24 +13298,30 @@
         <v>0</v>
       </c>
       <c r="AP98" t="n">
-        <v>205657</v>
+        <v>193291</v>
+      </c>
+      <c r="AQ98" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR98" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C99" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E99" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="1" t="n">
@@ -12638,10 +13331,10 @@
         <v>43630</v>
       </c>
       <c r="I99" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="J99" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="K99" t="n">
         <v>2.14</v>
@@ -12731,22 +13424,28 @@
       <c r="AP99" t="n">
         <v>193372</v>
       </c>
+      <c r="AQ99" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR99" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D100" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E100" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="1" t="n">
@@ -12756,10 +13455,10 @@
         <v>43957</v>
       </c>
       <c r="I100" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="J100" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="K100" t="n">
         <v>0.715</v>
@@ -12849,22 +13548,28 @@
       <c r="AP100" t="n">
         <v>194042</v>
       </c>
+      <c r="AQ100" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR100" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C101" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D101" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E101" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="1" t="n">
@@ -12874,10 +13579,10 @@
         <v>43816</v>
       </c>
       <c r="I101" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="J101" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="K101" t="n">
         <v>0.8</v>
@@ -12967,22 +13672,28 @@
       <c r="AP101" t="n">
         <v>194601</v>
       </c>
+      <c r="AQ101" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR101" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C102" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D102" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E102" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="1" t="n">
@@ -12992,10 +13703,10 @@
         <v>43770</v>
       </c>
       <c r="I102" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="J102" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="K102" t="n">
         <v>0.4</v>
@@ -13085,22 +13796,28 @@
       <c r="AP102" t="n">
         <v>194864</v>
       </c>
+      <c r="AQ102" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR102" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C103" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E103" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="1" t="n">
@@ -13110,10 +13827,10 @@
         <v>43797</v>
       </c>
       <c r="I103" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="J103" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="K103"/>
       <c r="L103"/>
@@ -13199,22 +13916,28 @@
       <c r="AP103" t="n">
         <v>197078</v>
       </c>
+      <c r="AQ103" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR103" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E104" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="1" t="n">
@@ -13224,10 +13947,10 @@
         <v>43951</v>
       </c>
       <c r="I104" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="J104" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="K104" t="n">
         <v>7.62</v>
@@ -13317,22 +14040,28 @@
       <c r="AP104" t="n">
         <v>195174</v>
       </c>
+      <c r="AQ104" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR104" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C105" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E105" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="1" t="n">
@@ -13342,10 +14071,10 @@
         <v>43942</v>
       </c>
       <c r="I105" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="J105" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="K105" t="n">
         <v>2</v>
@@ -13435,22 +14164,28 @@
       <c r="AP105" t="n">
         <v>208418</v>
       </c>
+      <c r="AQ105" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR105" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C106" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D106" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E106" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F106"/>
       <c r="G106" s="1" t="n">
@@ -13460,10 +14195,10 @@
         <v>43951</v>
       </c>
       <c r="I106" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="J106" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="K106" t="n">
         <v>0.05</v>
@@ -13553,22 +14288,28 @@
       <c r="AP106" t="n">
         <v>201976</v>
       </c>
+      <c r="AQ106" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR106" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C107" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E107" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F107"/>
       <c r="G107" s="1" t="n">
@@ -13578,10 +14319,10 @@
         <v>43697</v>
       </c>
       <c r="I107" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="J107" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="K107"/>
       <c r="L107"/>
@@ -13667,22 +14408,26 @@
       <c r="AP107" t="n">
         <v>197059</v>
       </c>
+      <c r="AQ107" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C108" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E108" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="1" t="n">
@@ -13692,10 +14437,10 @@
         <v>43714</v>
       </c>
       <c r="I108" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K108" t="n">
         <v>0.3</v>
@@ -13785,22 +14530,28 @@
       <c r="AP108" t="n">
         <v>197416</v>
       </c>
+      <c r="AQ108" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR108" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C109" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D109" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E109" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="1" t="n">
@@ -13810,10 +14561,10 @@
         <v>43861</v>
       </c>
       <c r="I109" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="J109" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="K109" t="n">
         <v>4.2</v>
@@ -13903,22 +14654,28 @@
       <c r="AP109" t="n">
         <v>201818</v>
       </c>
+      <c r="AQ109" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR109" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C110" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E110" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="1" t="n">
@@ -13928,10 +14685,10 @@
         <v>43697</v>
       </c>
       <c r="I110" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="J110" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="K110"/>
       <c r="L110"/>
@@ -14017,22 +14774,28 @@
       <c r="AP110" t="n">
         <v>196575</v>
       </c>
+      <c r="AQ110" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR110" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C111" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D111" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E111" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="1" t="n">
@@ -14042,10 +14805,10 @@
         <v>43718</v>
       </c>
       <c r="I111" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="J111" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K111" t="n">
         <v>5</v>
@@ -14135,22 +14898,28 @@
       <c r="AP111" t="n">
         <v>197574</v>
       </c>
+      <c r="AQ111" t="s">
+        <v>256</v>
+      </c>
+      <c r="AR111" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C112" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D112" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E112" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="1" t="n">
@@ -14160,10 +14929,10 @@
         <v>43747</v>
       </c>
       <c r="I112" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="J112" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="K112"/>
       <c r="L112"/>
@@ -14249,22 +15018,28 @@
       <c r="AP112" t="n">
         <v>198867</v>
       </c>
+      <c r="AQ112" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR112" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C113" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D113" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E113" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="1" t="n">
@@ -14274,10 +15049,10 @@
         <v>43803</v>
       </c>
       <c r="I113" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="J113" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="K113" t="n">
         <v>0.34989</v>
@@ -14367,22 +15142,28 @@
       <c r="AP113" t="n">
         <v>196206</v>
       </c>
+      <c r="AQ113" t="s">
+        <v>261</v>
+      </c>
+      <c r="AR113" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C114" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E114" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="1" t="n">
@@ -14392,10 +15173,10 @@
         <v>43692</v>
       </c>
       <c r="I114" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="J114" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="K114" t="n">
         <v>1</v>
@@ -14485,22 +15266,28 @@
       <c r="AP114" t="n">
         <v>196768</v>
       </c>
+      <c r="AQ114" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR114" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C115" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E115" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="1" t="n">
@@ -14510,10 +15297,10 @@
         <v>43725</v>
       </c>
       <c r="I115" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="J115" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="K115" t="n">
         <v>5</v>
@@ -14603,48 +15390,54 @@
       <c r="AP115" t="n">
         <v>197861</v>
       </c>
+      <c r="AQ115" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR115" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C116" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E116" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F116"/>
       <c r="G116" s="1" t="n">
-        <v>43661</v>
+        <v>43671</v>
       </c>
       <c r="H116" s="1" t="n">
-        <v>43725</v>
+        <v>43728</v>
       </c>
       <c r="I116" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="J116" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="K116" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="L116" t="n">
         <v>8.762</v>
       </c>
       <c r="M116" t="n">
-        <v>0.285323</v>
+        <v>0.798904</v>
       </c>
       <c r="N116"/>
       <c r="O116" t="n">
-        <v>0.285323</v>
+        <v>0.798904</v>
       </c>
       <c r="P116" t="n">
         <v>1</v>
@@ -14692,7 +15485,7 @@
         <v>0</v>
       </c>
       <c r="AE116" t="n">
-        <v>0.285323</v>
+        <v>0.798904</v>
       </c>
       <c r="AF116" t="n">
         <v>0</v>
@@ -14710,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="AK116" t="n">
-        <v>0.285323</v>
+        <v>0.798904</v>
       </c>
       <c r="AL116"/>
       <c r="AM116"/>
@@ -14719,50 +15512,56 @@
         <v>0</v>
       </c>
       <c r="AP116" t="n">
-        <v>197862</v>
+        <v>198056</v>
+      </c>
+      <c r="AQ116" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR116" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C117" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E117" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="1" t="n">
-        <v>43671</v>
+        <v>43661</v>
       </c>
       <c r="H117" s="1" t="n">
-        <v>43728</v>
+        <v>43725</v>
       </c>
       <c r="I117" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="J117" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="K117" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="L117" t="n">
         <v>8.762</v>
       </c>
       <c r="M117" t="n">
-        <v>0.798904</v>
+        <v>0.285323</v>
       </c>
       <c r="N117"/>
       <c r="O117" t="n">
-        <v>0.798904</v>
+        <v>0.285323</v>
       </c>
       <c r="P117" t="n">
         <v>1</v>
@@ -14810,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="AE117" t="n">
-        <v>0.798904</v>
+        <v>0.285323</v>
       </c>
       <c r="AF117" t="n">
         <v>0</v>
@@ -14828,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="AK117" t="n">
-        <v>0.798904</v>
+        <v>0.285323</v>
       </c>
       <c r="AL117"/>
       <c r="AM117"/>
@@ -14837,24 +15636,30 @@
         <v>0</v>
       </c>
       <c r="AP117" t="n">
-        <v>198056</v>
+        <v>197862</v>
+      </c>
+      <c r="AQ117" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR117" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C118" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E118" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="1" t="n">
@@ -14864,10 +15669,10 @@
         <v>43697</v>
       </c>
       <c r="I118" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="J118" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="K118"/>
       <c r="L118"/>
@@ -14953,22 +15758,26 @@
       <c r="AP118" t="n">
         <v>197062</v>
       </c>
+      <c r="AQ118" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C119" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D119" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E119" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="1" t="n">
@@ -14978,10 +15787,10 @@
         <v>43697</v>
       </c>
       <c r="I119" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="J119" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="K119"/>
       <c r="L119"/>
@@ -15067,22 +15876,26 @@
       <c r="AP119" t="n">
         <v>197063</v>
       </c>
+      <c r="AQ119" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C120" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D120" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E120" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="1" t="n">
@@ -15092,10 +15905,10 @@
         <v>43697</v>
       </c>
       <c r="I120" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="J120" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="K120"/>
       <c r="L120"/>
@@ -15181,22 +15994,26 @@
       <c r="AP120" t="n">
         <v>197064</v>
       </c>
+      <c r="AQ120" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C121" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D121" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E121" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="1" t="n">
@@ -15206,10 +16023,10 @@
         <v>43697</v>
       </c>
       <c r="I121" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="J121" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="K121"/>
       <c r="L121"/>
@@ -15295,22 +16112,26 @@
       <c r="AP121" t="n">
         <v>197069</v>
       </c>
+      <c r="AQ121" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C122" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E122" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F122"/>
       <c r="G122" s="1" t="n">
@@ -15320,10 +16141,10 @@
         <v>43697</v>
       </c>
       <c r="I122" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="J122" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="K122"/>
       <c r="L122"/>
@@ -15409,22 +16230,26 @@
       <c r="AP122" t="n">
         <v>197070</v>
       </c>
+      <c r="AQ122" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C123" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D123" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E123" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="1" t="n">
@@ -15434,23 +16259,23 @@
         <v>43881</v>
       </c>
       <c r="I123" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K123" t="n">
-        <v>0.1426</v>
+        <v>0.1</v>
       </c>
       <c r="L123" t="n">
         <v>0.828</v>
       </c>
       <c r="M123" t="n">
-        <v>0.172222</v>
+        <v>0.120773</v>
       </c>
       <c r="N123"/>
       <c r="O123" t="n">
-        <v>0.172222</v>
+        <v>0.120773</v>
       </c>
       <c r="P123" t="n">
         <v>1</v>
@@ -15501,7 +16326,7 @@
         <v>0</v>
       </c>
       <c r="AF123" t="n">
-        <v>0.172222</v>
+        <v>0.120773</v>
       </c>
       <c r="AG123" t="n">
         <v>0</v>
@@ -15516,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="AK123" t="n">
-        <v>0.172222</v>
+        <v>0.120773</v>
       </c>
       <c r="AL123"/>
       <c r="AM123"/>
@@ -15525,24 +16350,30 @@
         <v>0</v>
       </c>
       <c r="AP123" t="n">
-        <v>205350</v>
+        <v>205351</v>
+      </c>
+      <c r="AQ123" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR123" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C124" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E124" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="F124"/>
       <c r="G124" s="1" t="n">
@@ -15552,23 +16383,23 @@
         <v>43881</v>
       </c>
       <c r="I124" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K124" t="n">
-        <v>0.1</v>
+        <v>0.1426</v>
       </c>
       <c r="L124" t="n">
         <v>0.828</v>
       </c>
       <c r="M124" t="n">
-        <v>0.120773</v>
+        <v>0.172222</v>
       </c>
       <c r="N124"/>
       <c r="O124" t="n">
-        <v>0.120773</v>
+        <v>0.172222</v>
       </c>
       <c r="P124" t="n">
         <v>1</v>
@@ -15619,7 +16450,7 @@
         <v>0</v>
       </c>
       <c r="AF124" t="n">
-        <v>0.120773</v>
+        <v>0.172222</v>
       </c>
       <c r="AG124" t="n">
         <v>0</v>
@@ -15634,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="AK124" t="n">
-        <v>0.120773</v>
+        <v>0.172222</v>
       </c>
       <c r="AL124"/>
       <c r="AM124"/>
@@ -15643,24 +16474,30 @@
         <v>0</v>
       </c>
       <c r="AP124" t="n">
-        <v>205351</v>
+        <v>205350</v>
+      </c>
+      <c r="AQ124" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR124" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C125" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D125" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E125" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="1" t="n">
@@ -15670,10 +16507,10 @@
         <v>43899</v>
       </c>
       <c r="I125" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="J125" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="K125"/>
       <c r="L125"/>
@@ -15759,22 +16596,28 @@
       <c r="AP125" t="n">
         <v>206306</v>
       </c>
+      <c r="AQ125" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR125" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C126" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D126" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E126" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="1" t="n">
@@ -15784,10 +16627,10 @@
         <v>43899</v>
       </c>
       <c r="I126" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="J126" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="K126"/>
       <c r="L126"/>
@@ -15873,22 +16716,28 @@
       <c r="AP126" t="n">
         <v>206307</v>
       </c>
+      <c r="AQ126" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR126" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C127" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D127" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E127" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="F127"/>
       <c r="G127" s="1" t="n">
@@ -15898,10 +16747,10 @@
         <v>43899</v>
       </c>
       <c r="I127" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="J127" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="K127"/>
       <c r="L127"/>
@@ -15987,44 +16836,50 @@
       <c r="AP127" t="n">
         <v>206308</v>
       </c>
+      <c r="AQ127" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR127" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C128" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D128" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E128" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="F128"/>
       <c r="G128" s="1" t="n">
         <v>43705</v>
       </c>
       <c r="H128" s="1" t="n">
-        <v>43900</v>
+        <v>43907</v>
       </c>
       <c r="I128" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="J128" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="K128"/>
       <c r="L128"/>
       <c r="M128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N128"/>
       <c r="O128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P128" t="n">
         <v>1</v>
@@ -16075,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="AF128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG128" t="n">
         <v>0</v>
@@ -16090,7 +16945,7 @@
         <v>0</v>
       </c>
       <c r="AK128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL128"/>
       <c r="AM128"/>
@@ -16099,24 +16954,30 @@
         <v>0</v>
       </c>
       <c r="AP128" t="n">
-        <v>206324</v>
+        <v>206550</v>
+      </c>
+      <c r="AQ128" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR128" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C129" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D129" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E129" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="F129"/>
       <c r="G129" s="1" t="n">
@@ -16126,10 +16987,10 @@
         <v>43907</v>
       </c>
       <c r="I129" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="J129" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="K129"/>
       <c r="L129"/>
@@ -16213,46 +17074,52 @@
         <v>0</v>
       </c>
       <c r="AP129" t="n">
-        <v>206550</v>
+        <v>206551</v>
+      </c>
+      <c r="AQ129" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR129" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D130" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E130" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="F130"/>
       <c r="G130" s="1" t="n">
         <v>43705</v>
       </c>
       <c r="H130" s="1" t="n">
-        <v>43907</v>
+        <v>43900</v>
       </c>
       <c r="I130" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="J130" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="K130"/>
       <c r="L130"/>
       <c r="M130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N130"/>
       <c r="O130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P130" t="n">
         <v>1</v>
@@ -16303,7 +17170,7 @@
         <v>0</v>
       </c>
       <c r="AF130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG130" t="n">
         <v>0</v>
@@ -16318,7 +17185,7 @@
         <v>0</v>
       </c>
       <c r="AK130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL130"/>
       <c r="AM130"/>
@@ -16327,24 +17194,30 @@
         <v>0</v>
       </c>
       <c r="AP130" t="n">
-        <v>206551</v>
+        <v>206324</v>
+      </c>
+      <c r="AQ130" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR130" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C131" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D131" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E131" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F131"/>
       <c r="G131" s="1" t="n">
@@ -16354,10 +17227,10 @@
         <v>43857</v>
       </c>
       <c r="I131" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="J131" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="K131"/>
       <c r="L131"/>
@@ -16443,22 +17316,28 @@
       <c r="AP131" t="n">
         <v>199288</v>
       </c>
+      <c r="AQ131" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR131" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C132" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D132" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E132" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F132"/>
       <c r="G132" s="1" t="n">
@@ -16468,10 +17347,10 @@
         <v>43857</v>
       </c>
       <c r="I132" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="J132" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="K132"/>
       <c r="L132"/>
@@ -16557,22 +17436,28 @@
       <c r="AP132" t="n">
         <v>204083</v>
       </c>
+      <c r="AQ132" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR132" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C133" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D133" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E133" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F133"/>
       <c r="G133" s="1" t="n">
@@ -16582,10 +17467,10 @@
         <v>43857</v>
       </c>
       <c r="I133" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="J133" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="K133"/>
       <c r="L133"/>
@@ -16671,22 +17556,28 @@
       <c r="AP133" t="n">
         <v>204084</v>
       </c>
+      <c r="AQ133" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR133" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C134" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D134" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E134" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="F134"/>
       <c r="G134" s="1" t="n">
@@ -16696,10 +17587,10 @@
         <v>43907</v>
       </c>
       <c r="I134" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="J134" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="K134"/>
       <c r="L134"/>
@@ -16785,22 +17676,28 @@
       <c r="AP134" t="n">
         <v>206582</v>
       </c>
+      <c r="AQ134" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR134" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C135" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E135" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="F135"/>
       <c r="G135" s="1" t="n">
@@ -16810,10 +17707,10 @@
         <v>43907</v>
       </c>
       <c r="I135" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="J135" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="K135"/>
       <c r="L135"/>
@@ -16899,22 +17796,28 @@
       <c r="AP135" t="n">
         <v>206583</v>
       </c>
+      <c r="AQ135" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR135" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C136" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E136" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F136"/>
       <c r="G136" s="1" t="n">
@@ -16924,10 +17827,10 @@
         <v>43753</v>
       </c>
       <c r="I136" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="J136" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="K136"/>
       <c r="L136"/>
@@ -17013,22 +17916,26 @@
       <c r="AP136" t="n">
         <v>199285</v>
       </c>
+      <c r="AQ136" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C137" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D137" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E137" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F137"/>
       <c r="G137" s="1" t="n">
@@ -17038,10 +17945,10 @@
         <v>43857</v>
       </c>
       <c r="I137" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="J137" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="K137"/>
       <c r="L137"/>
@@ -17127,44 +18034,50 @@
       <c r="AP137" t="n">
         <v>197740</v>
       </c>
+      <c r="AQ137" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR137" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C138" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D138" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E138" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F138"/>
       <c r="G138" s="1" t="n">
-        <v>43718</v>
+        <v>43720</v>
       </c>
       <c r="H138" s="1" t="n">
-        <v>43721</v>
+        <v>43753</v>
       </c>
       <c r="I138" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="J138" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="K138"/>
       <c r="L138"/>
       <c r="M138" t="n">
-        <v>0.354234</v>
+        <v>10.59639</v>
       </c>
       <c r="N138"/>
       <c r="O138" t="n">
-        <v>0.354234</v>
+        <v>10.59639</v>
       </c>
       <c r="P138" t="n">
         <v>1</v>
@@ -17218,7 +18131,7 @@
         <v>0</v>
       </c>
       <c r="AG138" t="n">
-        <v>0.354234</v>
+        <v>10.59639</v>
       </c>
       <c r="AH138" t="n">
         <v>0</v>
@@ -17230,7 +18143,7 @@
         <v>0</v>
       </c>
       <c r="AK138" t="n">
-        <v>0.354234</v>
+        <v>10.59639</v>
       </c>
       <c r="AL138"/>
       <c r="AM138"/>
@@ -17239,24 +18152,28 @@
         <v>0</v>
       </c>
       <c r="AP138" t="n">
-        <v>197735</v>
-      </c>
+        <v>199286</v>
+      </c>
+      <c r="AQ138" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR138"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C139" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D139" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E139" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F139"/>
       <c r="G139" s="1" t="n">
@@ -17266,19 +18183,19 @@
         <v>43721</v>
       </c>
       <c r="I139" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="J139" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="K139"/>
       <c r="L139"/>
       <c r="M139" t="n">
-        <v>1.999062</v>
+        <v>0.354234</v>
       </c>
       <c r="N139"/>
       <c r="O139" t="n">
-        <v>1.999062</v>
+        <v>0.354234</v>
       </c>
       <c r="P139" t="n">
         <v>1</v>
@@ -17332,7 +18249,7 @@
         <v>0</v>
       </c>
       <c r="AG139" t="n">
-        <v>1.999062</v>
+        <v>0.354234</v>
       </c>
       <c r="AH139" t="n">
         <v>0</v>
@@ -17344,7 +18261,7 @@
         <v>0</v>
       </c>
       <c r="AK139" t="n">
-        <v>1.999062</v>
+        <v>0.354234</v>
       </c>
       <c r="AL139"/>
       <c r="AM139"/>
@@ -17353,24 +18270,30 @@
         <v>0</v>
       </c>
       <c r="AP139" t="n">
-        <v>197638</v>
+        <v>197735</v>
+      </c>
+      <c r="AQ139" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR139" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C140" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D140" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E140" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F140"/>
       <c r="G140" s="1" t="n">
@@ -17380,10 +18303,10 @@
         <v>43826</v>
       </c>
       <c r="I140" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="J140" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="K140"/>
       <c r="L140"/>
@@ -17469,22 +18392,28 @@
       <c r="AP140" t="n">
         <v>197639</v>
       </c>
+      <c r="AQ140" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR140" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C141" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D141" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E141" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F141"/>
       <c r="G141" s="1" t="n">
@@ -17494,10 +18423,10 @@
         <v>43826</v>
       </c>
       <c r="I141" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="J141" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="K141"/>
       <c r="L141"/>
@@ -17583,22 +18512,28 @@
       <c r="AP141" t="n">
         <v>197640</v>
       </c>
+      <c r="AQ141" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR141" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C142" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D142" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E142" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F142"/>
       <c r="G142" s="1" t="n">
@@ -17608,10 +18543,10 @@
         <v>43826</v>
       </c>
       <c r="I142" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="J142" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="K142"/>
       <c r="L142"/>
@@ -17697,22 +18632,28 @@
       <c r="AP142" t="n">
         <v>197641</v>
       </c>
+      <c r="AQ142" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR142" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C143" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D143" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E143" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F143"/>
       <c r="G143" s="1" t="n">
@@ -17722,10 +18663,10 @@
         <v>43826</v>
       </c>
       <c r="I143" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="J143" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="K143"/>
       <c r="L143"/>
@@ -17811,44 +18752,50 @@
       <c r="AP143" t="n">
         <v>197642</v>
       </c>
+      <c r="AQ143" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR143" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C144" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D144" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E144" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F144"/>
       <c r="G144" s="1" t="n">
-        <v>43720</v>
+        <v>43718</v>
       </c>
       <c r="H144" s="1" t="n">
-        <v>43753</v>
+        <v>43721</v>
       </c>
       <c r="I144" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="J144" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="K144"/>
       <c r="L144"/>
       <c r="M144" t="n">
-        <v>10.59639</v>
+        <v>1.999062</v>
       </c>
       <c r="N144"/>
       <c r="O144" t="n">
-        <v>10.59639</v>
+        <v>1.999062</v>
       </c>
       <c r="P144" t="n">
         <v>1</v>
@@ -17902,7 +18849,7 @@
         <v>0</v>
       </c>
       <c r="AG144" t="n">
-        <v>10.59639</v>
+        <v>1.999062</v>
       </c>
       <c r="AH144" t="n">
         <v>0</v>
@@ -17914,7 +18861,7 @@
         <v>0</v>
       </c>
       <c r="AK144" t="n">
-        <v>10.59639</v>
+        <v>1.999062</v>
       </c>
       <c r="AL144"/>
       <c r="AM144"/>
@@ -17923,24 +18870,30 @@
         <v>0</v>
       </c>
       <c r="AP144" t="n">
-        <v>199286</v>
+        <v>197638</v>
+      </c>
+      <c r="AQ144" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR144" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C145" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D145" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E145" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F145"/>
       <c r="G145" s="1" t="n">
@@ -17950,10 +18903,10 @@
         <v>43753</v>
       </c>
       <c r="I145" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="J145" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="K145"/>
       <c r="L145"/>
@@ -18039,22 +18992,28 @@
       <c r="AP145" t="n">
         <v>199291</v>
       </c>
+      <c r="AQ145" t="s">
+        <v>299</v>
+      </c>
+      <c r="AR145" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C146" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D146" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E146" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F146"/>
       <c r="G146" s="1" t="n">
@@ -18064,10 +19023,10 @@
         <v>43747</v>
       </c>
       <c r="I146" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="J146" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="K146"/>
       <c r="L146"/>
@@ -18153,22 +19112,28 @@
       <c r="AP146" t="n">
         <v>196576</v>
       </c>
+      <c r="AQ146" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR146" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C147" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E147" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F147"/>
       <c r="G147" s="1" t="n">
@@ -18178,10 +19143,10 @@
         <v>43879</v>
       </c>
       <c r="I147" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="J147" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="K147"/>
       <c r="L147"/>
@@ -18267,22 +19232,28 @@
       <c r="AP147" t="n">
         <v>197637</v>
       </c>
+      <c r="AQ147" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR147" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C148" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D148" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E148" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F148"/>
       <c r="G148" s="1" t="n">
@@ -18292,10 +19263,10 @@
         <v>43791</v>
       </c>
       <c r="I148" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="J148" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="K148" t="n">
         <v>8</v>
@@ -18385,22 +19356,28 @@
       <c r="AP148" t="n">
         <v>201814</v>
       </c>
+      <c r="AQ148" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR148" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C149" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D149" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E149" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F149"/>
       <c r="G149" s="1" t="n">
@@ -18410,10 +19387,10 @@
         <v>43753</v>
       </c>
       <c r="I149" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="J149" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="K149"/>
       <c r="L149"/>
@@ -18499,22 +19476,26 @@
       <c r="AP149" t="n">
         <v>199284</v>
       </c>
+      <c r="AQ149" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR149"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C150" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D150" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F150"/>
       <c r="G150" s="1" t="n">
@@ -18524,10 +19505,10 @@
         <v>43854</v>
       </c>
       <c r="I150" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="J150" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="K150" t="n">
         <v>0.5</v>
@@ -18617,22 +19598,28 @@
       <c r="AP150" t="n">
         <v>201457</v>
       </c>
+      <c r="AQ150" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR150" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B151" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C151" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D151" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E151" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F151"/>
       <c r="G151" s="1" t="n">
@@ -18642,10 +19629,10 @@
         <v>43854</v>
       </c>
       <c r="I151" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="J151" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="K151"/>
       <c r="L151"/>
@@ -18731,22 +19718,28 @@
       <c r="AP151" t="n">
         <v>199289</v>
       </c>
+      <c r="AQ151" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR151" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C152" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D152" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E152" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F152"/>
       <c r="G152" s="1" t="n">
@@ -18756,10 +19749,10 @@
         <v>43753</v>
       </c>
       <c r="I152" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="J152" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="K152"/>
       <c r="L152"/>
@@ -18845,22 +19838,26 @@
       <c r="AP152" t="n">
         <v>199287</v>
       </c>
+      <c r="AQ152" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C153" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D153" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E153" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F153"/>
       <c r="G153" s="1" t="n">
@@ -18870,10 +19867,10 @@
         <v>43854</v>
       </c>
       <c r="I153" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="J153" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="K153" t="n">
         <v>2</v>
@@ -18963,22 +19960,28 @@
       <c r="AP153" t="n">
         <v>201456</v>
       </c>
+      <c r="AQ153" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR153" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C154" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D154" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E154" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F154"/>
       <c r="G154" s="1" t="n">
@@ -18988,10 +19991,10 @@
         <v>43753</v>
       </c>
       <c r="I154" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="J154" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="K154"/>
       <c r="L154"/>
@@ -19077,48 +20080,48 @@
       <c r="AP154" t="n">
         <v>197065</v>
       </c>
+      <c r="AQ154" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR154"/>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C155" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D155" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E155" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F155"/>
       <c r="G155" s="1" t="n">
         <v>43738</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>43739</v>
+        <v>43753</v>
       </c>
       <c r="I155" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="J155" t="s">
-        <v>50</v>
-      </c>
-      <c r="K155" t="n">
-        <v>550</v>
-      </c>
-      <c r="L155" t="n">
-        <v>108.05</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="K155"/>
+      <c r="L155"/>
       <c r="M155" t="n">
-        <v>5.090236</v>
+        <v>1.840702</v>
       </c>
       <c r="N155"/>
       <c r="O155" t="n">
-        <v>5.090236</v>
+        <v>1.840702</v>
       </c>
       <c r="P155" t="n">
         <v>1</v>
@@ -19172,7 +20175,7 @@
         <v>0</v>
       </c>
       <c r="AG155" t="n">
-        <v>5.090236</v>
+        <v>1.840702</v>
       </c>
       <c r="AH155" t="n">
         <v>0</v>
@@ -19184,7 +20187,7 @@
         <v>0</v>
       </c>
       <c r="AK155" t="n">
-        <v>5.090236</v>
+        <v>1.840702</v>
       </c>
       <c r="AL155"/>
       <c r="AM155"/>
@@ -19193,46 +20196,54 @@
         <v>0</v>
       </c>
       <c r="AP155" t="n">
-        <v>198531</v>
-      </c>
+        <v>199283</v>
+      </c>
+      <c r="AQ155" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR155"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B156" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C156" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D156" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E156" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="F156"/>
       <c r="G156" s="1" t="n">
         <v>43738</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>43753</v>
+        <v>43739</v>
       </c>
       <c r="I156" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="J156" t="s">
-        <v>50</v>
-      </c>
-      <c r="K156"/>
-      <c r="L156"/>
+        <v>58</v>
+      </c>
+      <c r="K156" t="n">
+        <v>550</v>
+      </c>
+      <c r="L156" t="n">
+        <v>108.05</v>
+      </c>
       <c r="M156" t="n">
-        <v>1.840702</v>
+        <v>5.090236</v>
       </c>
       <c r="N156"/>
       <c r="O156" t="n">
-        <v>1.840702</v>
+        <v>5.090236</v>
       </c>
       <c r="P156" t="n">
         <v>1</v>
@@ -19286,7 +20297,7 @@
         <v>0</v>
       </c>
       <c r="AG156" t="n">
-        <v>1.840702</v>
+        <v>5.090236</v>
       </c>
       <c r="AH156" t="n">
         <v>0</v>
@@ -19298,7 +20309,7 @@
         <v>0</v>
       </c>
       <c r="AK156" t="n">
-        <v>1.840702</v>
+        <v>5.090236</v>
       </c>
       <c r="AL156"/>
       <c r="AM156"/>
@@ -19307,24 +20318,30 @@
         <v>0</v>
       </c>
       <c r="AP156" t="n">
-        <v>199283</v>
+        <v>198531</v>
+      </c>
+      <c r="AQ156" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR156" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C157" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D157" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E157" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F157"/>
       <c r="G157" s="1" t="n">
@@ -19334,10 +20351,10 @@
         <v>43759</v>
       </c>
       <c r="I157" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K157" t="n">
         <v>15</v>
@@ -19427,22 +20444,28 @@
       <c r="AP157" t="n">
         <v>199625</v>
       </c>
+      <c r="AQ157" t="s">
+        <v>321</v>
+      </c>
+      <c r="AR157" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C158" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D158" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E158" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F158"/>
       <c r="G158" s="1" t="n">
@@ -19452,10 +20475,10 @@
         <v>43759</v>
       </c>
       <c r="I158" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K158" t="n">
         <v>15</v>
@@ -19545,22 +20568,28 @@
       <c r="AP158" t="n">
         <v>199626</v>
       </c>
+      <c r="AQ158" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR158" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C159" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D159" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E159" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F159"/>
       <c r="G159" s="1" t="n">
@@ -19570,10 +20599,10 @@
         <v>43777</v>
       </c>
       <c r="I159" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="J159" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="K159"/>
       <c r="L159"/>
@@ -19659,22 +20688,26 @@
       <c r="AP159" t="n">
         <v>201311</v>
       </c>
+      <c r="AQ159" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR159"/>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C160" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D160" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E160" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F160"/>
       <c r="G160" s="1" t="n">
@@ -19684,10 +20717,10 @@
         <v>43811</v>
       </c>
       <c r="I160" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="J160" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="K160"/>
       <c r="L160"/>
@@ -19773,22 +20806,26 @@
       <c r="AP160" t="n">
         <v>201312</v>
       </c>
+      <c r="AQ160" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C161" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D161" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E161" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F161"/>
       <c r="G161" s="1" t="n">
@@ -19798,10 +20835,10 @@
         <v>43816</v>
       </c>
       <c r="I161" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="J161" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="K161" t="n">
         <v>0.8</v>
@@ -19891,22 +20928,28 @@
       <c r="AP161" t="n">
         <v>201209</v>
       </c>
+      <c r="AQ161" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR161" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C162" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D162" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E162" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F162"/>
       <c r="G162" s="1" t="n">
@@ -19916,10 +20959,10 @@
         <v>43811</v>
       </c>
       <c r="I162" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="J162" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="K162"/>
       <c r="L162"/>
@@ -20005,22 +21048,26 @@
       <c r="AP162" t="n">
         <v>202860</v>
       </c>
+      <c r="AQ162" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C163" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E163" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F163"/>
       <c r="G163" s="1" t="n">
@@ -20030,10 +21077,10 @@
         <v>43811</v>
       </c>
       <c r="I163" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="J163" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="K163"/>
       <c r="L163"/>
@@ -20119,22 +21166,26 @@
       <c r="AP163" t="n">
         <v>202888</v>
       </c>
+      <c r="AQ163" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C164" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D164" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E164" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F164"/>
       <c r="G164" s="1" t="n">
@@ -20144,10 +21195,10 @@
         <v>43861</v>
       </c>
       <c r="I164" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="J164" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="K164" t="n">
         <v>11.2</v>
@@ -20237,22 +21288,28 @@
       <c r="AP164" t="n">
         <v>201817</v>
       </c>
+      <c r="AQ164" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR164" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C165" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D165" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E165" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F165"/>
       <c r="G165" s="1" t="n">
@@ -20262,10 +21319,10 @@
         <v>43887</v>
       </c>
       <c r="I165" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="J165" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="K165"/>
       <c r="L165"/>
@@ -20350,6 +21407,12 @@
       </c>
       <c r="AP165" t="n">
         <v>205624</v>
+      </c>
+      <c r="AQ165" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR165" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
